--- a/BackTest/2019-10-21 BackTest BTC.xlsx
+++ b/BackTest/2019-10-21 BackTest BTC.xlsx
@@ -451,20 +451,14 @@
         <v>9418450</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>9418166.666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>9404000</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>9417816.666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>9417533.333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>9403000</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>9417300</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>9417016.666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>9410000</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>9416816.666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>9408000</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>9416550</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>9409000</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>9416200</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>9404000</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>9416033.333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>9415766.666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>9415583.333333334</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>9415366.666666666</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>9415183.333333334</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>9406000</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>9415050</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>9414833.333333334</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>9411000</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>9414566.666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>9409000</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>9414366.666666666</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>9406000</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>9414166.666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>9414016.666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>9404000</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>9413783.333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>9413550</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>9413350</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>9406000</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>9413166.666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>9408000</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>9412983.333333334</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>9411000</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>9412766.666666666</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>9412000</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>9412633.333333334</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>9409000</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>9412450</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>9410000</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>9412166.666666666</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>9411916.666666666</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>9411650</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>9411366.666666666</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>9406000</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>9411050</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,20 +1606,14 @@
         <v>9410766.666666666</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>9404000</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1641,14 @@
         <v>9410450</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>9404000</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1886,20 +1676,14 @@
         <v>9410050</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1927,20 +1711,14 @@
         <v>9409766.666666666</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>9403000</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1968,20 +1746,14 @@
         <v>9409383.333333334</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2009,20 +1781,14 @@
         <v>9408966.666666666</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2050,20 +1816,14 @@
         <v>9408616.666666666</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2091,20 +1851,14 @@
         <v>9408316.666666666</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2132,20 +1886,14 @@
         <v>9408016.666666666</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2173,20 +1921,14 @@
         <v>9407783.333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2214,20 +1956,14 @@
         <v>9407500</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2255,20 +1991,14 @@
         <v>9407300</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2296,20 +2026,14 @@
         <v>9407050</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>9399000</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2337,20 +2061,14 @@
         <v>9406766.666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>9399000</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2378,20 +2096,14 @@
         <v>9406466.666666666</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>9398000</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2419,20 +2131,14 @@
         <v>9406150</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>9398000</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2460,20 +2166,14 @@
         <v>9405850</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>9398000</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2501,20 +2201,14 @@
         <v>9405483.333333334</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>9395000</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2542,20 +2236,14 @@
         <v>9405133.333333334</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>9397000</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2583,20 +2271,14 @@
         <v>9404666.666666666</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>9397000</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2624,20 +2306,14 @@
         <v>9404183.333333334</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>9392000</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2665,20 +2341,14 @@
         <v>9403616.666666666</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>9389000</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2706,20 +2376,14 @@
         <v>9403150</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>9385000</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2747,20 +2411,14 @@
         <v>9402800</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>9387000</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2788,20 +2446,14 @@
         <v>9402500</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>9396000</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2829,20 +2481,14 @@
         <v>9402333.333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2870,20 +2516,14 @@
         <v>9402333.333333334</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2911,20 +2551,14 @@
         <v>9402383.333333334</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2952,20 +2586,14 @@
         <v>9402366.666666666</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2993,20 +2621,14 @@
         <v>9402500</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3034,20 +2656,14 @@
         <v>9402566.666666666</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>9411000</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3075,20 +2691,14 @@
         <v>9402466.666666666</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>9411000</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3116,20 +2726,14 @@
         <v>9402433.333333334</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3157,20 +2761,14 @@
         <v>9402400</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3198,20 +2796,14 @@
         <v>9402500</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>9410000</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3239,20 +2831,14 @@
         <v>9402633.333333334</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>9411000</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3280,20 +2866,14 @@
         <v>9402650</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3321,20 +2901,14 @@
         <v>9402783.333333334</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>9408000</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3362,20 +2936,14 @@
         <v>9402783.333333334</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>9410000</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3403,20 +2971,14 @@
         <v>9402883.333333334</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>9408000</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3444,20 +3006,14 @@
         <v>9402966.666666666</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>9412000</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3485,20 +3041,14 @@
         <v>9403033.333333334</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>9412000</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3526,20 +3076,14 @@
         <v>9403083.333333334</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>9412000</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3567,20 +3111,14 @@
         <v>9403150</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>9409000</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3608,20 +3146,14 @@
         <v>9403266.666666666</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>9409000</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3649,20 +3181,14 @@
         <v>9403266.666666666</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>9408000</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3690,20 +3216,14 @@
         <v>9403283.333333334</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3731,20 +3251,14 @@
         <v>9403283.333333334</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>9408000</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3772,20 +3286,14 @@
         <v>9403400</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>9409000</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3813,20 +3321,14 @@
         <v>9403533.333333334</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>9410000</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3854,20 +3356,14 @@
         <v>9403700</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>9413000</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3895,20 +3391,14 @@
         <v>9404350</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>9421000</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3936,20 +3426,14 @@
         <v>9404783.333333334</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>9449000</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3984,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4023,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4101,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4140,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4179,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4218,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4257,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4296,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4335,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4374,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4413,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4452,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4491,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4530,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4569,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4608,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4647,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4686,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4725,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4764,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4803,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4842,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4881,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4920,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4959,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4998,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5037,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5076,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5115,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5154,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5193,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5232,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5271,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5310,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5349,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5388,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5427,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5466,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5505,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5544,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5583,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5615,16 +4931,18 @@
         <v>9433216.666666666</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>9432000</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -5654,12 +4972,14 @@
         <v>9433633.333333334</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>9431000</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5693,12 +5013,14 @@
         <v>9434166.666666666</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>9433000</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -6980,14 +6302,12 @@
         <v>9433250</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>9420000</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -7021,14 +6341,12 @@
         <v>9432850</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>9418000</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -7062,14 +6380,12 @@
         <v>9432516.666666666</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>9420000</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -7103,14 +6419,12 @@
         <v>9432316.666666666</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>9428000</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -7144,14 +6458,12 @@
         <v>9432033.333333334</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>9426000</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -7185,14 +6497,12 @@
         <v>9431800</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>9421000</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -7226,14 +6536,12 @@
         <v>9431516.666666666</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>9425000</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -7267,14 +6575,12 @@
         <v>9431216.666666666</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>9422000</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -7308,14 +6614,12 @@
         <v>9430850</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>9419000</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -7349,14 +6653,12 @@
         <v>9430483.333333334</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>9417000</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -7390,14 +6692,12 @@
         <v>9430150</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>9420000</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -7431,14 +6731,12 @@
         <v>9429800</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>9417000</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -7472,14 +6770,12 @@
         <v>9429500</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>9421000</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -7513,14 +6809,12 @@
         <v>9429333.333333334</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>9420000</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -7554,14 +6848,12 @@
         <v>9429000</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>9417000</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -7595,14 +6887,12 @@
         <v>9428733.333333334</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>9420000</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -7636,14 +6926,12 @@
         <v>9428566.666666666</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>9416000</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -7677,14 +6965,12 @@
         <v>9428266.666666666</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>9419000</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
@@ -7718,14 +7004,12 @@
         <v>9428133.333333334</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>9416000</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
@@ -7759,14 +7043,12 @@
         <v>9427900</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>9421000</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -7800,14 +7082,12 @@
         <v>9427833.333333334</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>9418000</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
@@ -7841,14 +7121,12 @@
         <v>9427766.666666666</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>9429000</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
@@ -7882,14 +7160,12 @@
         <v>9427600</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>9427000</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
@@ -7923,14 +7199,12 @@
         <v>9427416.666666666</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>9423000</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
@@ -7964,14 +7238,12 @@
         <v>9427316.666666666</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>9421000</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
@@ -8005,14 +7277,12 @@
         <v>9427266.666666666</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>9426000</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
@@ -8046,14 +7316,12 @@
         <v>9427166.666666666</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>9426000</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
@@ -8087,14 +7355,12 @@
         <v>9426916.666666666</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>9426000</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
@@ -8128,14 +7394,12 @@
         <v>9426633.333333334</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>9427000</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
@@ -8169,14 +7433,12 @@
         <v>9426266.666666666</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>9425000</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -8210,14 +7472,12 @@
         <v>9425983.333333334</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>9424000</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
@@ -8251,14 +7511,12 @@
         <v>9425683.333333334</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>9423000</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
@@ -8292,14 +7550,12 @@
         <v>9425450</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>9424000</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
@@ -8333,14 +7589,12 @@
         <v>9425400</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>9423000</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
@@ -8374,14 +7628,12 @@
         <v>9425383.333333334</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>9430000</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
@@ -8415,14 +7667,12 @@
         <v>9425350</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>9435000</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
@@ -8456,14 +7706,12 @@
         <v>9425233.333333334</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>9432000</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
@@ -10018,14 +9266,12 @@
         <v>9428366.666666666</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>9425000</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
@@ -10059,14 +9305,12 @@
         <v>9428550</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>9424000</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
@@ -10100,14 +9344,12 @@
         <v>9428583.333333334</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>9423000</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
@@ -10141,14 +9383,12 @@
         <v>9428666.666666666</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>9422000</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
@@ -10182,14 +9422,12 @@
         <v>9428633.333333334</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>9425000</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
@@ -10223,14 +9461,12 @@
         <v>9428583.333333334</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>9423000</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
@@ -10264,14 +9500,12 @@
         <v>9428550</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>9425000</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
@@ -10305,14 +9539,12 @@
         <v>9428616.666666666</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>9424000</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
@@ -10346,14 +9578,12 @@
         <v>9428650</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>9426000</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
@@ -10387,14 +9617,12 @@
         <v>9428666.666666666</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>9428000</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
@@ -10428,14 +9656,12 @@
         <v>9428683.333333334</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>9430000</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
@@ -10469,14 +9695,12 @@
         <v>9428650</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>9427000</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
@@ -24124,18 +23348,16 @@
         <v>0</v>
       </c>
       <c r="I602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M602" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -24163,15 +23385,11 @@
         <v>0</v>
       </c>
       <c r="I603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L603" t="inlineStr"/>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -24202,15 +23420,11 @@
         <v>0</v>
       </c>
       <c r="I604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L604" t="inlineStr"/>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -24245,11 +23459,7 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L605" t="inlineStr"/>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -24284,11 +23494,7 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L606" t="inlineStr"/>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -24323,11 +23529,7 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L607" t="inlineStr"/>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -24362,11 +23564,7 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L608" t="inlineStr"/>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -24401,11 +23599,7 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L609" t="inlineStr"/>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -24440,11 +23634,7 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L610" t="inlineStr"/>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -24479,11 +23669,7 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L611" t="inlineStr"/>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -24518,11 +23704,7 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L612" t="inlineStr"/>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -24557,11 +23739,7 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L613" t="inlineStr"/>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -24596,11 +23774,7 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L614" t="inlineStr"/>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -24635,11 +23809,7 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L615" t="inlineStr"/>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -24674,11 +23844,7 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L616" t="inlineStr"/>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -24713,11 +23879,7 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L617" t="inlineStr"/>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -24752,11 +23914,7 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L618" t="inlineStr"/>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -24791,11 +23949,7 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L619" t="inlineStr"/>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -24830,11 +23984,7 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L620" t="inlineStr"/>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -24869,11 +24019,7 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L621" t="inlineStr"/>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -24908,11 +24054,7 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L622" t="inlineStr"/>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -24947,11 +24089,7 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L623" t="inlineStr"/>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -24982,16 +24120,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M624" t="inlineStr"/>
+      <c r="L624" t="inlineStr"/>
+      <c r="M624" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -25054,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
@@ -25089,7 +24225,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
@@ -25124,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
@@ -25614,7 +24750,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
@@ -25649,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>

--- a/BackTest/2019-10-21 BackTest BTC.xlsx
+++ b/BackTest/2019-10-21 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3.116938050000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>3.116938050000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>3.035674860000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>3.418874860000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9423000</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>3.418874860000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-0.02742513999999874</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>-2.844425139999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9423000</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>-2.523925139999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9421000</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>-4.765625139999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>-4.637525139999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>-2.786063459999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9418000</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>-2.786063459999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9419000</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +913,17 @@
         <v>-3.418763459999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9419000</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +952,17 @@
         <v>-3.640763459999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9418000</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +991,17 @@
         <v>-2.877163459999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1030,17 @@
         <v>-1.277025139999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1069,17 @@
         <v>-1.446725139999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9421000</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1108,17 @@
         <v>-1.446725139999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1147,17 @@
         <v>-2.57182514</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1186,17 @@
         <v>-2.40062514</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9416000</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1225,17 @@
         <v>-2.50372514</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1264,17 @@
         <v>-2.71112514</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9419000</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1303,17 @@
         <v>-2.32072514</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1342,17 @@
         <v>-1.51632514</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9422000</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1381,17 @@
         <v>-1.662425139999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9423000</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1420,17 @@
         <v>-2.30330265</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9422000</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1459,17 @@
         <v>-3.55040265</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1498,17 @@
         <v>-2.25660265</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9416000</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1537,17 @@
         <v>-2.25660265</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1576,17 @@
         <v>-1.24610265</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1615,17 @@
         <v>-1.33530265</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9422000</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1654,17 @@
         <v>-1.13080265</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9418000</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1693,17 @@
         <v>-1.47220265</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9422000</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1732,17 @@
         <v>-1.19820265</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9419000</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1771,17 @@
         <v>4.27399735</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1810,17 @@
         <v>3.79229735</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9425000</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1849,17 @@
         <v>6.34519735</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9419000</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1888,17 @@
         <v>14.49059735</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1927,17 @@
         <v>13.41599735</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9423000</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1966,17 @@
         <v>10.34469735</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9422000</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2005,17 @@
         <v>3.00908317</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2044,17 @@
         <v>1.68848322</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9419000</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2083,17 @@
         <v>4.52318322</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9414000</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2122,17 @@
         <v>4.36198322</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9416000</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2161,17 @@
         <v>9.42708322</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9411000</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2200,17 @@
         <v>9.42708322</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9416000</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2239,17 @@
         <v>9.42708322</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9416000</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2278,17 @@
         <v>9.59558322</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9416000</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2317,17 @@
         <v>9.59558322</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2356,17 @@
         <v>8.965023929999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2395,17 @@
         <v>10.01802393</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9416000</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2434,17 @@
         <v>9.618423929999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>9418000</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2473,17 @@
         <v>9.292423929999998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9416000</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2512,17 @@
         <v>9.838377119999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9414000</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2551,17 @@
         <v>5.726576999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>9419000</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2590,17 @@
         <v>5.713976999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9418000</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2629,17 @@
         <v>6.909376999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2668,17 @@
         <v>5.215358589999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9418000</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2707,17 @@
         <v>-12.27844141</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2746,17 @@
         <v>2.181458589999998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9402000</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2785,17 @@
         <v>7.164258589999998</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9403000</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2824,17 @@
         <v>4.219058589999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9407000</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2863,17 @@
         <v>4.446258589999998</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9403000</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2902,17 @@
         <v>10.61135859</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9406000</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2941,17 @@
         <v>10.54705859</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9410000</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2980,17 @@
         <v>11.55505859</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9407000</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3019,17 @@
         <v>10.95857016</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9411000</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +3058,17 @@
         <v>6.694470159999997</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3097,17 @@
         <v>6.696870159999997</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9403000</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,7 +3136,7 @@
         <v>6.611170159999997</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>9407000</v>
@@ -2736,7 +3144,7 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2767,7 +3175,7 @@
         <v>7.031470159999997</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>9402000</v>
@@ -2806,7 +3214,7 @@
         <v>6.556270159999997</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>9408000</v>
@@ -2845,7 +3253,7 @@
         <v>14.21437016</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>9406000</v>
@@ -2884,7 +3292,7 @@
         <v>18.53827016</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>9407000</v>
@@ -2923,7 +3331,7 @@
         <v>18.43967016</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>9409000</v>
@@ -2962,7 +3370,7 @@
         <v>18.21077016</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>9407000</v>
@@ -3001,7 +3409,7 @@
         <v>18.21077016</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>9405000</v>
@@ -3040,7 +3448,7 @@
         <v>18.21077016</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>9405000</v>
@@ -3079,7 +3487,7 @@
         <v>18.25517016</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>9405000</v>
@@ -3118,7 +3526,7 @@
         <v>17.72797015999999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>9407000</v>
@@ -3157,7 +3565,7 @@
         <v>16.95127015999999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>9406000</v>
@@ -3196,7 +3604,7 @@
         <v>16.95127015999999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>9405000</v>
@@ -3235,7 +3643,7 @@
         <v>20.22107015999999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>9405000</v>
@@ -3274,7 +3682,7 @@
         <v>20.47977015999999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>9411000</v>
@@ -3313,7 +3721,7 @@
         <v>19.84787015999999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>9412000</v>
@@ -3352,9 +3760,11 @@
         <v>19.84787015999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>9409000</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3389,7 +3799,7 @@
         <v>19.30647015999999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>9409000</v>
@@ -3428,7 +3838,7 @@
         <v>19.02197015999999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>9405000</v>
@@ -3467,9 +3877,11 @@
         <v>19.05097015999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>9403000</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3504,7 +3916,7 @@
         <v>19.18017015999999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>9405000</v>
@@ -3543,7 +3955,7 @@
         <v>17.52847015999999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>9406000</v>
@@ -3582,7 +3994,7 @@
         <v>17.80667015999999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>9401000</v>
@@ -3621,7 +4033,7 @@
         <v>17.60957015999999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>9403000</v>
@@ -3660,7 +4072,7 @@
         <v>17.18420129999999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>9402000</v>
@@ -3699,7 +4111,7 @@
         <v>17.18420129999999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>9401000</v>
@@ -3738,7 +4150,7 @@
         <v>17.60850129999999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>9401000</v>
@@ -3777,7 +4189,7 @@
         <v>8.73470129999999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>9402000</v>
@@ -3816,7 +4228,7 @@
         <v>8.73930129999999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>9397000</v>
@@ -3855,7 +4267,7 @@
         <v>9.11460129999999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>9398000</v>
@@ -3894,7 +4306,7 @@
         <v>10.53340129999999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>9401000</v>
@@ -3933,7 +4345,7 @@
         <v>9.88190129999999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>9402000</v>
@@ -3972,7 +4384,7 @@
         <v>8.48650129999999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>9401000</v>
@@ -4011,7 +4423,7 @@
         <v>4.32960129999999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>9400000</v>
@@ -4050,7 +4462,7 @@
         <v>4.32960129999999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>9399000</v>
@@ -4089,7 +4501,7 @@
         <v>5.99220129999999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>9399000</v>
@@ -4128,7 +4540,7 @@
         <v>-0.76889870000001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>9401000</v>
@@ -4167,7 +4579,7 @@
         <v>-9.26269870000001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>9399000</v>
@@ -4206,7 +4618,7 @@
         <v>-9.26269870000001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>9398000</v>
@@ -4245,7 +4657,7 @@
         <v>-8.948398700000011</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>9398000</v>
@@ -4284,7 +4696,7 @@
         <v>-14.29546911000001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>9399000</v>
@@ -4323,7 +4735,7 @@
         <v>-12.08736911000001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>9394000</v>
@@ -4362,7 +4774,7 @@
         <v>-19.84386911000001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>9397000</v>
@@ -4401,7 +4813,7 @@
         <v>-26.33546911000001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>9388000</v>
@@ -4440,7 +4852,7 @@
         <v>-26.33546911000001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>9385000</v>
@@ -4479,7 +4891,7 @@
         <v>-26.19756911000001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>9385000</v>
@@ -4518,7 +4930,7 @@
         <v>0.7334308899999868</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>9390000</v>
@@ -4557,7 +4969,7 @@
         <v>16.49583088999999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>9396000</v>
@@ -4596,7 +5008,7 @@
         <v>17.10393088999999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>9400000</v>
@@ -4635,7 +5047,7 @@
         <v>17.10393088999999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>9402000</v>
@@ -4674,9 +5086,11 @@
         <v>23.46373088999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>9402000</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4711,7 +5125,7 @@
         <v>23.46373088999999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>9406000</v>
@@ -4750,7 +5164,7 @@
         <v>32.39483088999999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>9406000</v>
@@ -4789,9 +5203,11 @@
         <v>29.54403088999999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>9411000</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4826,9 +5242,11 @@
         <v>29.19133088999999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>9410000</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4863,7 +5281,7 @@
         <v>29.30133088999999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>9404000</v>
@@ -4902,7 +5320,7 @@
         <v>29.57943088999999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>9405000</v>
@@ -4941,7 +5359,7 @@
         <v>30.47283088999999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>9409000</v>
@@ -4980,7 +5398,7 @@
         <v>30.47283088999999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>9411000</v>
@@ -5019,7 +5437,7 @@
         <v>30.40366887999999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>9411000</v>
@@ -5058,9 +5476,11 @@
         <v>30.46630686999999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>9408000</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5095,9 +5515,11 @@
         <v>30.21925062999999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>9410000</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5132,9 +5554,11 @@
         <v>32.78765062999999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>9408000</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5169,9 +5593,11 @@
         <v>32.78765062999999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5206,9 +5632,11 @@
         <v>33.25825062999998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5243,9 +5671,11 @@
         <v>32.93665062999999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>9413000</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5280,9 +5710,11 @@
         <v>30.61865062999999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>9410000</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5317,9 +5749,11 @@
         <v>32.71705062999999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>9409000</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5354,9 +5788,11 @@
         <v>25.98955062999999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5391,9 +5827,11 @@
         <v>28.61285062999999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5428,9 +5866,11 @@
         <v>28.22245062999999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>9408000</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5465,9 +5905,11 @@
         <v>30.05671025999999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>9406000</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5502,9 +5944,11 @@
         <v>30.36461025999999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5539,9 +5983,11 @@
         <v>45.10571025999999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>9413000</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5576,9 +6022,11 @@
         <v>101.71643295</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>9421000</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5909,9 +6357,11 @@
         <v>111.04123295</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>9445000</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -5983,9 +6433,11 @@
         <v>111.93803295</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>9448000</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6723,9 +7175,11 @@
         <v>116.67343434</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>9441000</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6871,9 +7325,11 @@
         <v>114.43063434</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>9431000</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6908,9 +7364,11 @@
         <v>117.07143434</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>9429000</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6945,9 +7403,11 @@
         <v>114.71843434</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>9430000</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7019,9 +7479,11 @@
         <v>114.27143434</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>9432000</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -8240,9 +8702,11 @@
         <v>125.97763303</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>9432000</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8314,9 +8778,11 @@
         <v>119.52253303</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>9429000</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8388,9 +8854,11 @@
         <v>119.29193303</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>9416000</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8425,9 +8893,11 @@
         <v>118.43383303</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>9421000</v>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8462,9 +8932,11 @@
         <v>118.23743303</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8499,9 +8971,11 @@
         <v>118.85913303</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>9416000</v>
+      </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -8536,9 +9010,11 @@
         <v>120.30463303</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>9419000</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8573,9 +9049,11 @@
         <v>120.68323303</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>9421000</v>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8610,9 +9088,11 @@
         <v>122.05243303</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8647,9 +9127,11 @@
         <v>120.72923303</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>9426000</v>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8684,9 +9166,11 @@
         <v>121.93013303</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>9421000</v>
+      </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8721,9 +9205,11 @@
         <v>121.93013303</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>9425000</v>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8758,9 +9244,11 @@
         <v>121.45813303</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>9425000</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8795,9 +9283,11 @@
         <v>120.61653303</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>9419000</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8832,9 +9322,11 @@
         <v>121.40653303</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>9418000</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8869,9 +9361,11 @@
         <v>119.80063303</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8906,9 +9400,11 @@
         <v>123.04563303</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>9419000</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8943,9 +9439,11 @@
         <v>126.14783303</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8980,9 +9478,11 @@
         <v>126.10063303</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>9421000</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9017,9 +9517,11 @@
         <v>124.05123303</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -9054,9 +9556,11 @@
         <v>124.05123303</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>9415000</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9091,9 +9595,11 @@
         <v>124.05923303</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>9415000</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9128,9 +9634,11 @@
         <v>123.55073303</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>9419000</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9165,9 +9673,11 @@
         <v>123.74343303</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9202,9 +9712,11 @@
         <v>123.40503303</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>9421000</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9239,9 +9751,11 @@
         <v>131.10833303</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>9418000</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9276,9 +9790,11 @@
         <v>131.10833303</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>9427000</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9313,9 +9829,11 @@
         <v>129.92473303</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>9427000</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9350,9 +9868,11 @@
         <v>128.84086202</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>9426000</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9387,9 +9907,11 @@
         <v>129.5130604</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>9423000</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9424,9 +9946,11 @@
         <v>130.9779604</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>9426000</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9461,9 +9985,11 @@
         <v>130.9436604</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>9428000</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -9498,9 +10024,11 @@
         <v>130.9436604</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>9427000</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9535,9 +10063,11 @@
         <v>131.5417604</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>9427000</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9572,9 +10102,11 @@
         <v>131.0331604</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>9428000</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9609,9 +10141,11 @@
         <v>130.81720164</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9646,9 +10180,11 @@
         <v>131.73268765</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>9423000</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9683,9 +10219,11 @@
         <v>131.73268765</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9720,9 +10258,11 @@
         <v>133.07828765</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9757,9 +10297,11 @@
         <v>139.07588765</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>9430000</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9794,9 +10336,11 @@
         <v>139.07588765</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>9433000</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9831,9 +10375,11 @@
         <v>134.86408765</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>9433000</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9905,9 +10451,11 @@
         <v>134.9098936699999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>9432000</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9979,9 +10527,11 @@
         <v>133.78939367</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>9432000</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -10016,9 +10566,11 @@
         <v>135.3120936699999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>9426000</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -10053,9 +10605,11 @@
         <v>135.1313936699999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>9428000</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10090,9 +10644,11 @@
         <v>135.4145936699999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>9426000</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10127,9 +10683,11 @@
         <v>135.4145936699999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>9430000</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10164,9 +10722,11 @@
         <v>135.7769936699999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>9430000</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10201,9 +10761,11 @@
         <v>135.7769936699999</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>9432000</v>
+      </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10238,9 +10800,11 @@
         <v>135.7769936699999</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>9432000</v>
+      </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10275,9 +10839,11 @@
         <v>135.7769936699999</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>9432000</v>
+      </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10312,9 +10878,11 @@
         <v>136.2228936699999</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>9432000</v>
+      </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10349,9 +10917,11 @@
         <v>136.2228936699999</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>9434000</v>
+      </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10386,9 +10956,11 @@
         <v>138.5626936699999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>9434000</v>
+      </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10423,9 +10995,11 @@
         <v>138.4093936699999</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>9437000</v>
+      </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10460,9 +11034,11 @@
         <v>138.6602936699999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>9435000</v>
+      </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10497,9 +11073,11 @@
         <v>137.5672936699999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>9436000</v>
+      </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10534,9 +11112,11 @@
         <v>139.2401115999999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>9432000</v>
+      </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10571,9 +11151,11 @@
         <v>139.37002702</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>9437000</v>
+      </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -10608,9 +11190,11 @@
         <v>138.2311270199999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>9440000</v>
+      </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -10645,9 +11229,11 @@
         <v>138.2311270199999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>9438000</v>
+      </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -10682,9 +11268,11 @@
         <v>136.27772702</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>9438000</v>
+      </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10756,9 +11344,11 @@
         <v>133.54521697</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>9428000</v>
+      </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10793,9 +11383,11 @@
         <v>133.71331697</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>9427000</v>
+      </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10830,9 +11422,11 @@
         <v>132.81371697</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>9429000</v>
+      </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10867,9 +11461,11 @@
         <v>132.14571697</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>9427000</v>
+      </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -10904,9 +11500,11 @@
         <v>132.31991697</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>9426000</v>
+      </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -10941,9 +11539,11 @@
         <v>132.02761697</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>9428000</v>
+      </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -10978,9 +11578,11 @@
         <v>136.54851697</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>9425000</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -11015,9 +11617,11 @@
         <v>134.94521697</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>9427000</v>
+      </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -11052,9 +11656,11 @@
         <v>136.86611678</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -11089,9 +11695,11 @@
         <v>137.94871678</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>9425000</v>
+      </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -11126,9 +11734,11 @@
         <v>137.48641678</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>9426000</v>
+      </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -11163,9 +11773,11 @@
         <v>137.48641678</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>9425000</v>
+      </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -11200,9 +11812,11 @@
         <v>137.48641678</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>9425000</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -11237,9 +11851,11 @@
         <v>135.77891678</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>9425000</v>
+      </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -11274,9 +11890,11 @@
         <v>135.89331678</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>9423000</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -11311,9 +11929,11 @@
         <v>135.09491678</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>9425000</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -11348,9 +11968,11 @@
         <v>134.82541678</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11385,9 +12007,11 @@
         <v>134.82541678</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>9423000</v>
+      </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11422,9 +12046,11 @@
         <v>134.82541678</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>9423000</v>
+      </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11459,9 +12085,11 @@
         <v>135.41262262</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>9423000</v>
+      </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11496,9 +12124,11 @@
         <v>135.10722262</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>9425000</v>
+      </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11533,9 +12163,11 @@
         <v>135.10722262</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11570,9 +12202,11 @@
         <v>135.27222262</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -11607,9 +12241,11 @@
         <v>139.89782281</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>9427000</v>
+      </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -11644,9 +12280,11 @@
         <v>141.64076704</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>9428000</v>
+      </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -11681,9 +12319,11 @@
         <v>141.25256704</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>9429000</v>
+      </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -11718,9 +12358,11 @@
         <v>139.22306704</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>9428000</v>
+      </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -11755,9 +12397,11 @@
         <v>139.60586704</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>9425000</v>
+      </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -11792,9 +12436,11 @@
         <v>150.13466704</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>9426000</v>
+      </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -11829,9 +12475,11 @@
         <v>159.9500323</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>9436000</v>
+      </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -26074,16 +26722,18 @@
         <v>383.1490474799998</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L699" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L699" t="n">
+        <v>1</v>
+      </c>
       <c r="M699" t="inlineStr"/>
     </row>
     <row r="700">
@@ -26109,11 +26759,15 @@
         <v>374.7957474799998</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26146,7 +26800,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26175,11 +26833,15 @@
         <v>371.0986474799998</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26208,11 +26870,15 @@
         <v>378.0442474799998</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26245,7 +26911,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26278,7 +26948,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26311,7 +26985,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -26344,7 +27022,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -26377,7 +27059,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -26410,7 +27096,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -26443,7 +27133,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26476,7 +27170,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26509,7 +27207,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26542,7 +27244,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26575,7 +27281,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26608,7 +27318,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26641,7 +27355,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26674,7 +27392,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26707,7 +27429,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26740,7 +27466,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26773,7 +27503,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26806,7 +27540,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26839,7 +27577,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26872,7 +27614,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26905,7 +27651,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26938,7 +27688,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26971,7 +27725,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -27004,7 +27762,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -27037,7 +27799,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -27070,7 +27836,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -27103,7 +27873,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -27136,7 +27910,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -27169,7 +27947,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -27202,7 +27984,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -27235,7 +28021,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -27268,7 +28058,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -27301,7 +28095,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -27334,7 +28132,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -27367,7 +28169,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -27400,7 +28206,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -27433,7 +28243,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -27466,7 +28280,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27499,7 +28317,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27532,7 +28354,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27561,11 +28387,15 @@
         <v>382.8637573599998</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -27594,11 +28424,15 @@
         <v>379.7420573599998</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -27627,11 +28461,15 @@
         <v>380.4561573599998</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -27660,11 +28498,15 @@
         <v>380.2047573599998</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -27697,7 +28539,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -27730,7 +28576,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -27763,7 +28613,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -27796,7 +28650,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27829,7 +28687,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27862,7 +28724,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27895,7 +28761,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27928,7 +28798,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27961,7 +28835,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27994,7 +28872,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -28027,7 +28909,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28060,7 +28946,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -28093,7 +28983,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -28122,14 +29016,16 @@
         <v>381.5192055299998</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
-      <c r="L761" t="n">
-        <v>1</v>
-      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L761" t="inlineStr"/>
       <c r="M761" t="inlineStr"/>
     </row>
     <row r="762">
@@ -28155,7 +29051,7 @@
         <v>375.4337055299998</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28188,7 +29084,7 @@
         <v>382.2133055299998</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28221,7 +29117,7 @@
         <v>376.6052055299998</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28254,7 +29150,7 @@
         <v>382.8494623799998</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28287,7 +29183,7 @@
         <v>381.6892522899998</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28320,7 +29216,7 @@
         <v>382.2026522899998</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28353,7 +29249,7 @@
         <v>383.7582522899998</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -28386,7 +29282,7 @@
         <v>390.9588493899998</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28419,7 +29315,7 @@
         <v>396.1620522899998</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28452,7 +29348,7 @@
         <v>405.8297480499998</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28485,7 +29381,7 @@
         <v>390.7462892199998</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28518,7 +29414,7 @@
         <v>387.5782078799998</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28551,7 +29447,7 @@
         <v>387.8308078799998</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28584,7 +29480,7 @@
         <v>385.2705052199998</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28617,7 +29513,7 @@
         <v>385.2705052199998</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28650,7 +29546,7 @@
         <v>378.8576052199998</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28683,7 +29579,7 @@
         <v>378.8576052199998</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28716,7 +29612,7 @@
         <v>379.6421052199998</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28749,7 +29645,7 @@
         <v>377.8724052199998</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28782,7 +29678,7 @@
         <v>379.9742052199998</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28815,7 +29711,7 @@
         <v>385.4830052199998</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28848,7 +29744,7 @@
         <v>384.4746052199998</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28881,7 +29777,7 @@
         <v>384.0901052199998</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28914,7 +29810,7 @@
         <v>387.0423052199998</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28947,7 +29843,7 @@
         <v>386.6856052199998</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28980,7 +29876,7 @@
         <v>400.8724052199998</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -29013,7 +29909,7 @@
         <v>426.7189052199998</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29046,7 +29942,7 @@
         <v>441.0230052199998</v>
       </c>
       <c r="H789" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29079,7 +29975,7 @@
         <v>427.2819052199998</v>
       </c>
       <c r="H790" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -29112,7 +30008,7 @@
         <v>424.8114052199998</v>
       </c>
       <c r="H791" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -29145,7 +30041,7 @@
         <v>424.4069052199998</v>
       </c>
       <c r="H792" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -29178,7 +30074,7 @@
         <v>424.4069052199998</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29211,7 +30107,7 @@
         <v>424.9298052199998</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29244,7 +30140,7 @@
         <v>430.5622530299998</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29277,7 +30173,7 @@
         <v>433.6040530299998</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29310,7 +30206,7 @@
         <v>434.9664547999998</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29343,7 +30239,7 @@
         <v>438.5359547999998</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29376,7 +30272,7 @@
         <v>446.3609318299999</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -29409,7 +30305,7 @@
         <v>476.6978318299999</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29442,7 +30338,7 @@
         <v>465.7915966299998</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29475,7 +30371,7 @@
         <v>468.4428966299998</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29508,7 +30404,7 @@
         <v>473.4965166399998</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29541,7 +30437,7 @@
         <v>466.3979166399998</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29574,7 +30470,7 @@
         <v>472.3481166399998</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29607,7 +30503,7 @@
         <v>473.9916166399998</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29640,7 +30536,7 @@
         <v>469.3157166399998</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29673,7 +30569,7 @@
         <v>467.3334166399998</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29706,7 +30602,7 @@
         <v>468.2810166399998</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29739,7 +30635,7 @@
         <v>475.2101166399999</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29772,7 +30668,7 @@
         <v>472.9308166399999</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29805,7 +30701,7 @@
         <v>475.8817617699999</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29838,7 +30734,7 @@
         <v>473.8032617699998</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29871,7 +30767,7 @@
         <v>477.4526617699998</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29904,7 +30800,7 @@
         <v>475.2679617699998</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29937,7 +30833,7 @@
         <v>478.5848617699998</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29970,7 +30866,7 @@
         <v>476.5211311199998</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -30003,7 +30899,7 @@
         <v>476.5211311199998</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -30036,7 +30932,7 @@
         <v>477.5466282399998</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -30069,7 +30965,7 @@
         <v>476.7171282399998</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -30102,7 +30998,7 @@
         <v>473.5612282399998</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -30135,7 +31031,7 @@
         <v>453.4411282399998</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -30168,7 +31064,7 @@
         <v>453.4411282399998</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -30201,7 +31097,7 @@
         <v>456.5310281899999</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -30234,7 +31130,7 @@
         <v>460.7953281899999</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -30267,7 +31163,7 @@
         <v>461.2667804899999</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -30300,7 +31196,7 @@
         <v>461.0555804899998</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -30333,7 +31229,7 @@
         <v>459.1427804899998</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -30366,7 +31262,7 @@
         <v>459.1427804899998</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -30399,7 +31295,7 @@
         <v>457.4343804899999</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -30432,7 +31328,7 @@
         <v>456.8005804899998</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -30465,7 +31361,7 @@
         <v>462.2735804899999</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -30498,7 +31394,7 @@
         <v>461.3475804899999</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -30531,7 +31427,7 @@
         <v>461.3475804899999</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -30564,7 +31460,7 @@
         <v>462.0420804899999</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -30597,7 +31493,7 @@
         <v>460.9177804899999</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -30630,7 +31526,7 @@
         <v>452.4375804899998</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -30663,7 +31559,7 @@
         <v>460.1708804899998</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30696,7 +31592,7 @@
         <v>465.1077804899998</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30729,7 +31625,7 @@
         <v>460.5013804899998</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30762,7 +31658,7 @@
         <v>463.0502804899998</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30795,7 +31691,7 @@
         <v>465.0431671299998</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30828,7 +31724,7 @@
         <v>464.5320671299998</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30861,7 +31757,7 @@
         <v>460.6283887499998</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30894,7 +31790,7 @@
         <v>460.5689887499998</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30927,7 +31823,7 @@
         <v>459.6345887499999</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30960,7 +31856,7 @@
         <v>459.6345887499999</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30993,7 +31889,7 @@
         <v>457.4337887499998</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -31026,7 +31922,7 @@
         <v>455.2322887499998</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -31059,7 +31955,7 @@
         <v>439.4261887499998</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -31092,7 +31988,7 @@
         <v>434.1164887499998</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -31125,7 +32021,7 @@
         <v>426.8974887499998</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -31158,7 +32054,7 @@
         <v>418.9976887499998</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -31191,7 +32087,7 @@
         <v>431.2383887499998</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -31224,7 +32120,7 @@
         <v>429.1770887499998</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -31257,7 +32153,7 @@
         <v>427.0329887499998</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -31290,7 +32186,7 @@
         <v>432.0782887499998</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -31323,7 +32219,7 @@
         <v>438.0061378099998</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -31356,7 +32252,7 @@
         <v>439.3549378099998</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -31389,7 +32285,7 @@
         <v>438.9989378099998</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -31422,7 +32318,7 @@
         <v>438.9989378099998</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -31455,7 +32351,7 @@
         <v>438.9989378099998</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -31488,7 +32384,7 @@
         <v>437.4462378099998</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31521,7 +32417,7 @@
         <v>442.6805378099998</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31554,7 +32450,7 @@
         <v>442.6805378099998</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31587,7 +32483,7 @@
         <v>443.1698378099998</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31620,7 +32516,7 @@
         <v>445.3448378099998</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -31653,7 +32549,7 @@
         <v>453.3378378099998</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31686,7 +32582,7 @@
         <v>454.8709378099998</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -31719,7 +32615,7 @@
         <v>454.7438378099998</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31752,7 +32648,7 @@
         <v>454.7437378099999</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31785,7 +32681,7 @@
         <v>455.3450378099998</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31818,7 +32714,7 @@
         <v>458.4857378099998</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -31851,7 +32747,7 @@
         <v>459.3236378099998</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -31917,7 +32813,7 @@
         <v>458.7263116499998</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31950,7 +32846,7 @@
         <v>457.9026116499998</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31983,7 +32879,7 @@
         <v>457.7521116499998</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -32016,7 +32912,7 @@
         <v>456.2240116499998</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -32049,7 +32945,7 @@
         <v>453.2111116499998</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -32082,7 +32978,7 @@
         <v>453.2111116499998</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -32115,7 +33011,7 @@
         <v>446.7013116499998</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -32148,7 +33044,7 @@
         <v>447.5960116499998</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -32181,7 +33077,7 @@
         <v>444.1961116499998</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -32214,7 +33110,7 @@
         <v>446.6048116499998</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -32247,7 +33143,7 @@
         <v>447.7236116499998</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -32280,7 +33176,7 @@
         <v>444.0623116499999</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -32313,7 +33209,7 @@
         <v>444.0623116499999</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -32346,7 +33242,7 @@
         <v>446.1059116499999</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -32379,7 +33275,7 @@
         <v>445.4074341799999</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -32412,7 +33308,7 @@
         <v>445.4074341799999</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -32445,7 +33341,7 @@
         <v>453.2591567099999</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -32478,7 +33374,7 @@
         <v>453.2073567099999</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -32511,7 +33407,7 @@
         <v>453.9524567099999</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32544,7 +33440,7 @@
         <v>452.7478567099998</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -32577,7 +33473,7 @@
         <v>453.1123567099999</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -32610,7 +33506,7 @@
         <v>453.1673567099999</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -32643,7 +33539,7 @@
         <v>453.1673567099999</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -32676,7 +33572,7 @@
         <v>452.5117567099999</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32709,7 +33605,7 @@
         <v>452.7961567099999</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32742,7 +33638,7 @@
         <v>448.6899619199999</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -32775,7 +33671,7 @@
         <v>452.5248619199999</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -32808,7 +33704,7 @@
         <v>452.5637619199999</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32841,7 +33737,7 @@
         <v>455.8243619199999</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32874,7 +33770,7 @@
         <v>453.8163540999999</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32907,7 +33803,7 @@
         <v>450.6829540999999</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32940,7 +33836,7 @@
         <v>449.3009540999999</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32973,7 +33869,7 @@
         <v>455.5705540999999</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -33006,7 +33902,7 @@
         <v>456.1656880899999</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -33039,7 +33935,7 @@
         <v>455.9276880899999</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -33072,7 +33968,7 @@
         <v>457.06188809</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -33105,7 +34001,7 @@
         <v>458.00428809</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -33138,7 +34034,7 @@
         <v>465.28048809</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -33171,7 +34067,7 @@
         <v>468.20120909</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -33204,7 +34100,7 @@
         <v>466.06470909</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -33237,7 +34133,7 @@
         <v>464.92390909</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -33270,7 +34166,7 @@
         <v>467.19600909</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -33303,7 +34199,7 @@
         <v>466.34650909</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -33336,7 +34232,7 @@
         <v>468.06050909</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -33369,7 +34265,7 @@
         <v>468.06050909</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -33402,7 +34298,7 @@
         <v>468.06050909</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -33435,7 +34331,7 @@
         <v>469.90430909</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -33468,7 +34364,7 @@
         <v>469.90430909</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33501,7 +34397,7 @@
         <v>471.2363541</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33534,7 +34430,7 @@
         <v>471.2363541</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33567,7 +34463,7 @@
         <v>475.7586541</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33600,7 +34496,7 @@
         <v>475.6923541</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33633,7 +34529,7 @@
         <v>474.7658541</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33666,7 +34562,7 @@
         <v>474.0680541</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33699,7 +34595,7 @@
         <v>473.1347541000001</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33732,7 +34628,7 @@
         <v>471.8099541000001</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33765,7 +34661,7 @@
         <v>468.7376541000001</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33798,7 +34694,7 @@
         <v>466.4284994700001</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33831,7 +34727,7 @@
         <v>468.5735994700001</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33864,7 +34760,7 @@
         <v>469.9101994700001</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33897,7 +34793,7 @@
         <v>469.9101994700001</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33930,7 +34826,7 @@
         <v>468.91709947</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33963,7 +34859,7 @@
         <v>471.13139947</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33996,7 +34892,7 @@
         <v>471.13139947</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34029,7 +34925,7 @@
         <v>470.58919947</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34062,7 +34958,7 @@
         <v>467.74089947</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -34095,7 +34991,7 @@
         <v>467.07559947</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -34128,7 +35024,7 @@
         <v>463.6982994700001</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34161,7 +35057,7 @@
         <v>465.1531994700001</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -34194,7 +35090,7 @@
         <v>464.66639947</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -34227,7 +35123,7 @@
         <v>466.4674994700001</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -34260,7 +35156,7 @@
         <v>463.4893994700001</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -34293,7 +35189,7 @@
         <v>458.1187994700001</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -34326,7 +35222,7 @@
         <v>455.47669947</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -34359,7 +35255,7 @@
         <v>449.51969947</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -34392,7 +35288,7 @@
         <v>448.6651994700001</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -34425,7 +35321,7 @@
         <v>446.8836936800001</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -34458,7 +35354,7 @@
         <v>455.2452652900001</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -34491,7 +35387,7 @@
         <v>454.0436652900001</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -34524,7 +35420,7 @@
         <v>446.0891652900001</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34557,7 +35453,7 @@
         <v>449.3565652900001</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34590,7 +35486,7 @@
         <v>447.0285652900001</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34623,7 +35519,7 @@
         <v>442.8457905700001</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -34656,7 +35552,7 @@
         <v>442.8457905700001</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34689,7 +35585,7 @@
         <v>441.3225905700002</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -34722,7 +35618,7 @@
         <v>441.3225905700002</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34755,7 +35651,7 @@
         <v>441.1183905700001</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34788,7 +35684,7 @@
         <v>445.1278905700001</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34821,7 +35717,7 @@
         <v>444.4561580500002</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34854,7 +35750,7 @@
         <v>443.4401580500002</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34887,7 +35783,7 @@
         <v>446.0007897100002</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34920,7 +35816,7 @@
         <v>446.8045897100002</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34953,7 +35849,7 @@
         <v>446.8045897100002</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34986,7 +35882,7 @@
         <v>446.4778897100002</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -35019,7 +35915,7 @@
         <v>443.8339897100002</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -35052,7 +35948,7 @@
         <v>443.8339897100002</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -35085,7 +35981,7 @@
         <v>446.7850324400002</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -35118,7 +36014,7 @@
         <v>450.3610897100002</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -35151,7 +36047,7 @@
         <v>450.0112897100001</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -35184,7 +36080,7 @@
         <v>452.5426295900002</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -35217,7 +36113,7 @@
         <v>451.5320295900001</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -35250,7 +36146,7 @@
         <v>453.1844295900001</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -35283,7 +36179,7 @@
         <v>456.5486295900001</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -35316,7 +36212,7 @@
         <v>455.4786295900001</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -35349,7 +36245,7 @@
         <v>451.7170023900001</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -35382,7 +36278,7 @@
         <v>436.7472023900001</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -35415,7 +36311,7 @@
         <v>436.0506023900001</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -35448,7 +36344,7 @@
         <v>434.0049023900001</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -35481,7 +36377,7 @@
         <v>432.0872023900001</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -35514,7 +36410,7 @@
         <v>430.6270023900001</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -35547,7 +36443,7 @@
         <v>429.4319023900001</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -35580,7 +36476,7 @@
         <v>429.1719278200001</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -35613,7 +36509,7 @@
         <v>428.9449278200001</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -35646,7 +36542,7 @@
         <v>426.8655278200001</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -35679,7 +36575,7 @@
         <v>413.9969278200001</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -35712,7 +36608,7 @@
         <v>421.11312782</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35745,7 +36641,7 @@
         <v>419.56082782</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35778,7 +36674,7 @@
         <v>418.88882782</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -36042,7 +36938,7 @@
         <v>441.0977260499999</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -36075,7 +36971,7 @@
         <v>440.3022260499999</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -36108,7 +37004,7 @@
         <v>439.1953260499999</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -36306,7 +37202,7 @@
         <v>444.1345622999999</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -36504,7 +37400,7 @@
         <v>454.9623622999999</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -36537,7 +37433,7 @@
         <v>454.9623622999999</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -36570,7 +37466,7 @@
         <v>451.3281622999999</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -36636,7 +37532,7 @@
         <v>452.8633622999999</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -36669,7 +37565,7 @@
         <v>453.7256622999999</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -36768,7 +37664,7 @@
         <v>460.6119123999999</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -36801,7 +37697,7 @@
         <v>465.6268123999999</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -36834,7 +37730,7 @@
         <v>469.8515123999999</v>
       </c>
       <c r="H1025" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36867,7 +37763,7 @@
         <v>475.7399123999999</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36900,7 +37796,7 @@
         <v>477.1434123999999</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36933,7 +37829,7 @@
         <v>472.6436123999999</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36966,7 +37862,7 @@
         <v>472.6436123999999</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36999,7 +37895,7 @@
         <v>473.2820123999999</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37032,7 +37928,7 @@
         <v>470.2771123999999</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -37065,7 +37961,7 @@
         <v>468.2331123999999</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -37098,7 +37994,7 @@
         <v>475.0018123999999</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -37131,7 +38027,7 @@
         <v>478.6482123999999</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -37164,7 +38060,7 @@
         <v>486.2077123999999</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -37197,7 +38093,7 @@
         <v>487.1423123999999</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -37230,7 +38126,7 @@
         <v>487.8576123999999</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -37263,7 +38159,7 @@
         <v>498.6875257799999</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -37296,7 +38192,7 @@
         <v>503.7137257799999</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -37329,7 +38225,7 @@
         <v>503.7137257799999</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -37362,7 +38258,7 @@
         <v>503.47112578</v>
       </c>
       <c r="H1041" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -37395,7 +38291,7 @@
         <v>502.9092679399999</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -37428,7 +38324,7 @@
         <v>500.63656794</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -37461,7 +38357,7 @@
         <v>501.5068679399999</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -37494,7 +38390,7 @@
         <v>501.5068679399999</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -37527,7 +38423,7 @@
         <v>504.11776794</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -37560,7 +38456,7 @@
         <v>502.89036794</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -37593,7 +38489,7 @@
         <v>502.32246794</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -37626,7 +38522,7 @@
         <v>497.84576794</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -37659,7 +38555,7 @@
         <v>497.2387679399999</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -37692,7 +38588,7 @@
         <v>498.33176794</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -37725,7 +38621,7 @@
         <v>500.2659679399999</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -37758,7 +38654,7 @@
         <v>500.7566679399999</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -37791,7 +38687,7 @@
         <v>499.2589679399999</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -37824,7 +38720,7 @@
         <v>496.4184679399999</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37857,7 +38753,7 @@
         <v>501.7366777999999</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -37890,7 +38786,7 @@
         <v>505.30790816</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37923,7 +38819,7 @@
         <v>503.54930816</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37956,7 +38852,7 @@
         <v>508.6986081599999</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -37989,7 +38885,7 @@
         <v>508.69850816</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -38022,7 +38918,7 @@
         <v>509.6870081599999</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -38055,7 +38951,7 @@
         <v>512.35060585</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -38088,7 +38984,7 @@
         <v>515.0900152199999</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -38121,7 +39017,7 @@
         <v>517.7156152199999</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -38154,7 +39050,7 @@
         <v>518.5224152199999</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -38187,7 +39083,7 @@
         <v>516.7424152199999</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -38220,7 +39116,7 @@
         <v>516.7468152199999</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -38253,7 +39149,7 @@
         <v>515.66461522</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -38286,7 +39182,7 @@
         <v>514.86250918</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -38319,7 +39215,7 @@
         <v>514.86250918</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -38352,7 +39248,7 @@
         <v>514.79680918</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -38385,7 +39281,7 @@
         <v>513.6652091799999</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -38418,7 +39314,7 @@
         <v>513.6652091799999</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -38451,7 +39347,7 @@
         <v>513.75200918</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -38484,7 +39380,7 @@
         <v>512.92710918</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -38517,7 +39413,7 @@
         <v>512.24340918</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -38550,7 +39446,7 @@
         <v>512.24340918</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -38583,7 +39479,7 @@
         <v>515.11960918</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -38616,7 +39512,7 @@
         <v>516.22070918</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -38649,7 +39545,7 @@
         <v>517.9369091799999</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -38682,7 +39578,7 @@
         <v>515.11520918</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -38715,7 +39611,7 @@
         <v>522.7327091799999</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -38748,7 +39644,7 @@
         <v>523.0720091799999</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -38781,7 +39677,7 @@
         <v>523.9430091799999</v>
       </c>
       <c r="H1084" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -38814,7 +39710,7 @@
         <v>523.9430091799999</v>
       </c>
       <c r="H1085" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -38847,7 +39743,7 @@
         <v>523.9430091799999</v>
       </c>
       <c r="H1086" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -38880,7 +39776,7 @@
         <v>522.3355091799999</v>
       </c>
       <c r="H1087" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -38913,7 +39809,7 @@
         <v>522.8858091399999</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -38946,7 +39842,7 @@
         <v>521.1155091399999</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -38979,7 +39875,7 @@
         <v>521.7236091399999</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -39012,7 +39908,7 @@
         <v>520.5514091399999</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -39045,7 +39941,7 @@
         <v>519.78590917</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -39078,7 +39974,7 @@
         <v>520.91770917</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -39111,7 +40007,7 @@
         <v>518.7263091699999</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -39144,7 +40040,7 @@
         <v>517.8911240799999</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -39177,7 +40073,7 @@
         <v>516.0714240799999</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -39210,7 +40106,7 @@
         <v>519.2972241299999</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -39243,7 +40139,7 @@
         <v>516.2885241299999</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -39276,7 +40172,7 @@
         <v>516.2885241299999</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -39309,7 +40205,7 @@
         <v>515.2581241299999</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -39342,7 +40238,7 @@
         <v>515.2581241299999</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -39375,7 +40271,7 @@
         <v>515.2581241299999</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -39408,7 +40304,7 @@
         <v>510.5176241299999</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -39441,7 +40337,7 @@
         <v>512.19862413</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -39474,7 +40370,7 @@
         <v>524.48672413</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -39507,7 +40403,7 @@
         <v>520.8537241299999</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -39540,7 +40436,7 @@
         <v>525.1169469399999</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -39573,7 +40469,7 @@
         <v>525.0202469399999</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -39606,7 +40502,7 @@
         <v>525.0688469399998</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -39639,7 +40535,7 @@
         <v>526.3258469399998</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -39672,7 +40568,7 @@
         <v>526.3258469399998</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -39705,7 +40601,7 @@
         <v>526.3258469399998</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -39738,7 +40634,7 @@
         <v>525.0669372199998</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -39771,7 +40667,7 @@
         <v>524.9668372199998</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -39804,7 +40700,7 @@
         <v>525.5138372199998</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -39870,7 +40766,7 @@
         <v>527.1420372199998</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -40134,7 +41030,7 @@
         <v>531.2281372199999</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -40167,7 +41063,7 @@
         <v>531.2281372199999</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -40200,7 +41096,7 @@
         <v>530.6053372199999</v>
       </c>
       <c r="H1127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -40233,7 +41129,7 @@
         <v>530.0233372199999</v>
       </c>
       <c r="H1128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -40266,7 +41162,7 @@
         <v>529.0756372199999</v>
       </c>
       <c r="H1129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -40299,7 +41195,7 @@
         <v>529.5681372199998</v>
       </c>
       <c r="H1130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -40332,7 +41228,7 @@
         <v>529.4242372199998</v>
       </c>
       <c r="H1131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -40365,7 +41261,7 @@
         <v>530.1410372199998</v>
       </c>
       <c r="H1132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -40398,7 +41294,7 @@
         <v>528.2658372199999</v>
       </c>
       <c r="H1133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -40431,7 +41327,7 @@
         <v>528.2658372199999</v>
       </c>
       <c r="H1134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -40464,7 +41360,7 @@
         <v>528.2658372199999</v>
       </c>
       <c r="H1135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -40497,7 +41393,7 @@
         <v>521.3192372199999</v>
       </c>
       <c r="H1136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -40530,7 +41426,7 @@
         <v>525.9066372399999</v>
       </c>
       <c r="H1137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -40563,7 +41459,7 @@
         <v>519.8361372399999</v>
       </c>
       <c r="H1138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -40596,7 +41492,7 @@
         <v>519.8361372399999</v>
       </c>
       <c r="H1139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -40629,7 +41525,7 @@
         <v>520.3021372399999</v>
       </c>
       <c r="H1140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -40662,7 +41558,7 @@
         <v>522.9272372399998</v>
       </c>
       <c r="H1141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -40695,7 +41591,7 @@
         <v>528.0081372399999</v>
       </c>
       <c r="H1142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -40728,7 +41624,7 @@
         <v>530.6850372399999</v>
       </c>
       <c r="H1143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -40761,7 +41657,7 @@
         <v>533.19676734</v>
       </c>
       <c r="H1144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -40794,7 +41690,7 @@
         <v>529.55816734</v>
       </c>
       <c r="H1145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -40827,7 +41723,7 @@
         <v>529.55816734</v>
       </c>
       <c r="H1146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -40860,7 +41756,7 @@
         <v>531.2548673399999</v>
       </c>
       <c r="H1147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -40893,7 +41789,7 @@
         <v>535.88367033</v>
       </c>
       <c r="H1148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -40926,7 +41822,7 @@
         <v>535.88367033</v>
       </c>
       <c r="H1149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -40959,7 +41855,7 @@
         <v>536.8584703299999</v>
       </c>
       <c r="H1150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -40992,7 +41888,7 @@
         <v>542.65199818</v>
       </c>
       <c r="H1151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -41025,7 +41921,7 @@
         <v>544.54278928</v>
       </c>
       <c r="H1152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -41058,7 +41954,7 @@
         <v>544.3084334199999</v>
       </c>
       <c r="H1153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -41091,7 +41987,7 @@
         <v>541.8692334199999</v>
       </c>
       <c r="H1154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -41124,7 +42020,7 @@
         <v>548.3262393899998</v>
       </c>
       <c r="H1155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -41157,7 +42053,7 @@
         <v>547.5115892099999</v>
       </c>
       <c r="H1156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -41190,7 +42086,7 @@
         <v>548.4557405699999</v>
       </c>
       <c r="H1157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -41223,7 +42119,7 @@
         <v>548.8905405699999</v>
       </c>
       <c r="H1158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -41256,7 +42152,7 @@
         <v>548.2015365799999</v>
       </c>
       <c r="H1159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -41289,7 +42185,7 @@
         <v>552.8288365799999</v>
       </c>
       <c r="H1160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -41322,7 +42218,7 @@
         <v>564.1212112599999</v>
       </c>
       <c r="H1161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -41355,7 +42251,7 @@
         <v>561.9034112599999</v>
       </c>
       <c r="H1162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -41388,7 +42284,7 @@
         <v>560.4514112599999</v>
       </c>
       <c r="H1163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -41421,7 +42317,7 @@
         <v>560.4514112599999</v>
       </c>
       <c r="H1164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -41454,7 +42350,7 @@
         <v>560.4514112599999</v>
       </c>
       <c r="H1165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -41487,7 +42383,7 @@
         <v>561.7903112599998</v>
       </c>
       <c r="H1166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -41520,7 +42416,7 @@
         <v>560.0895112599999</v>
       </c>
       <c r="H1167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -41553,7 +42449,7 @@
         <v>560.0895112599999</v>
       </c>
       <c r="H1168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -41586,7 +42482,7 @@
         <v>559.9078083499999</v>
       </c>
       <c r="H1169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -41619,7 +42515,7 @@
         <v>559.0088083499999</v>
       </c>
       <c r="H1170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -41652,7 +42548,7 @@
         <v>556.3693089499999</v>
       </c>
       <c r="H1171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -41685,7 +42581,7 @@
         <v>556.3693089499999</v>
       </c>
       <c r="H1172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -41718,7 +42614,7 @@
         <v>558.2396092299999</v>
       </c>
       <c r="H1173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -41751,7 +42647,7 @@
         <v>560.2239092299999</v>
       </c>
       <c r="H1174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -41784,7 +42680,7 @@
         <v>558.7898807499998</v>
       </c>
       <c r="H1175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -41817,7 +42713,7 @@
         <v>559.5703683199998</v>
       </c>
       <c r="H1176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -41850,7 +42746,7 @@
         <v>560.6380683199998</v>
       </c>
       <c r="H1177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -41883,7 +42779,7 @@
         <v>577.1577683199998</v>
       </c>
       <c r="H1178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -41916,7 +42812,7 @@
         <v>578.4298683199999</v>
       </c>
       <c r="H1179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -41949,7 +42845,7 @@
         <v>578.4298683199999</v>
       </c>
       <c r="H1180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -41982,7 +42878,7 @@
         <v>578.4298683199999</v>
       </c>
       <c r="H1181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -42015,7 +42911,7 @@
         <v>573.8187585999999</v>
       </c>
       <c r="H1182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -42048,7 +42944,7 @@
         <v>579.0294585999999</v>
       </c>
       <c r="H1183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -42081,7 +42977,7 @@
         <v>578.9572454999999</v>
       </c>
       <c r="H1184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -42114,7 +43010,7 @@
         <v>578.9572454999999</v>
       </c>
       <c r="H1185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
@@ -42147,7 +43043,7 @@
         <v>581.6101323999999</v>
       </c>
       <c r="H1186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -42180,7 +43076,7 @@
         <v>594.5259323999999</v>
       </c>
       <c r="H1187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
@@ -42213,7 +43109,7 @@
         <v>595.9285881399999</v>
       </c>
       <c r="H1188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
@@ -42246,7 +43142,7 @@
         <v>595.6452881399998</v>
       </c>
       <c r="H1189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
@@ -42279,7 +43175,7 @@
         <v>595.6452881399998</v>
       </c>
       <c r="H1190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -42312,7 +43208,7 @@
         <v>595.6452881399998</v>
       </c>
       <c r="H1191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -42345,7 +43241,7 @@
         <v>592.7362881399998</v>
       </c>
       <c r="H1192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
@@ -42378,7 +43274,7 @@
         <v>596.1408881399998</v>
       </c>
       <c r="H1193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
@@ -42411,7 +43307,7 @@
         <v>595.7751881399998</v>
       </c>
       <c r="H1194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
@@ -42444,7 +43340,7 @@
         <v>593.7377881399998</v>
       </c>
       <c r="H1195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
@@ -42477,7 +43373,7 @@
         <v>593.7377881399998</v>
       </c>
       <c r="H1196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
@@ -42510,7 +43406,7 @@
         <v>592.7042881399998</v>
       </c>
       <c r="H1197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
@@ -42543,7 +43439,7 @@
         <v>592.7042881399998</v>
       </c>
       <c r="H1198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -42576,7 +43472,7 @@
         <v>592.2805316499998</v>
       </c>
       <c r="H1199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -42609,7 +43505,7 @@
         <v>592.2805316499998</v>
       </c>
       <c r="H1200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -42642,7 +43538,7 @@
         <v>592.2805316499998</v>
       </c>
       <c r="H1201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
@@ -42675,7 +43571,7 @@
         <v>596.0587316499998</v>
       </c>
       <c r="H1202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
@@ -42708,7 +43604,7 @@
         <v>597.4397316499998</v>
       </c>
       <c r="H1203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
@@ -42741,7 +43637,7 @@
         <v>593.7633316499998</v>
       </c>
       <c r="H1204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
@@ -42774,7 +43670,7 @@
         <v>595.6353316499998</v>
       </c>
       <c r="H1205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
@@ -42807,7 +43703,7 @@
         <v>585.5449316499997</v>
       </c>
       <c r="H1206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
@@ -42840,7 +43736,7 @@
         <v>585.7937316499997</v>
       </c>
       <c r="H1207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
@@ -42873,7 +43769,7 @@
         <v>583.2408316499997</v>
       </c>
       <c r="H1208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
@@ -42906,7 +43802,7 @@
         <v>571.8157316499996</v>
       </c>
       <c r="H1209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
@@ -42939,7 +43835,7 @@
         <v>572.7865316499997</v>
       </c>
       <c r="H1210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
@@ -42972,7 +43868,7 @@
         <v>571.8087639999997</v>
       </c>
       <c r="H1211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
@@ -43005,7 +43901,7 @@
         <v>572.1121639999997</v>
       </c>
       <c r="H1212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
@@ -43038,7 +43934,7 @@
         <v>568.1738215299997</v>
       </c>
       <c r="H1213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
@@ -43071,7 +43967,7 @@
         <v>566.9885215299997</v>
       </c>
       <c r="H1214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
@@ -43434,7 +44330,7 @@
         <v>562.5532210599998</v>
       </c>
       <c r="H1225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
@@ -43467,7 +44363,7 @@
         <v>562.5532210599998</v>
       </c>
       <c r="H1226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
@@ -43533,7 +44429,7 @@
         <v>566.0084210599998</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
@@ -43566,7 +44462,7 @@
         <v>566.3654210599998</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
@@ -43599,7 +44495,7 @@
         <v>566.3654210599998</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
@@ -43632,7 +44528,7 @@
         <v>565.3596210599998</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
@@ -43665,7 +44561,7 @@
         <v>565.3596210599998</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
@@ -43698,7 +44594,7 @@
         <v>565.8274210599998</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
@@ -43731,7 +44627,7 @@
         <v>565.8274210599998</v>
       </c>
       <c r="H1234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
@@ -44226,7 +45122,7 @@
         <v>564.2606905999996</v>
       </c>
       <c r="H1249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
@@ -44259,7 +45155,7 @@
         <v>563.9606905999997</v>
       </c>
       <c r="H1250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
@@ -44292,7 +45188,7 @@
         <v>565.5120905999996</v>
       </c>
       <c r="H1251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
@@ -44325,7 +45221,7 @@
         <v>567.9421905999997</v>
       </c>
       <c r="H1252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
@@ -44358,7 +45254,7 @@
         <v>565.3857905999996</v>
       </c>
       <c r="H1253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
@@ -44391,7 +45287,7 @@
         <v>565.3857905999996</v>
       </c>
       <c r="H1254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
@@ -44424,7 +45320,7 @@
         <v>563.3738905999996</v>
       </c>
       <c r="H1255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
@@ -44457,7 +45353,7 @@
         <v>563.3738905999996</v>
       </c>
       <c r="H1256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
@@ -44490,7 +45386,7 @@
         <v>561.4804905999996</v>
       </c>
       <c r="H1257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
@@ -44523,7 +45419,7 @@
         <v>564.2497905999996</v>
       </c>
       <c r="H1258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
@@ -44556,7 +45452,7 @@
         <v>565.2984905999997</v>
       </c>
       <c r="H1259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
@@ -44589,7 +45485,7 @@
         <v>565.2984905999997</v>
       </c>
       <c r="H1260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
@@ -44622,7 +45518,7 @@
         <v>565.5691905999997</v>
       </c>
       <c r="H1261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
@@ -44655,7 +45551,7 @@
         <v>565.5691905999997</v>
       </c>
       <c r="H1262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
@@ -44688,7 +45584,7 @@
         <v>567.0799905999997</v>
       </c>
       <c r="H1263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
@@ -44721,7 +45617,7 @@
         <v>566.7583905999998</v>
       </c>
       <c r="H1264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
@@ -44754,7 +45650,7 @@
         <v>566.9909905999998</v>
       </c>
       <c r="H1265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
@@ -44787,7 +45683,7 @@
         <v>566.5045905999998</v>
       </c>
       <c r="H1266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
@@ -44820,7 +45716,7 @@
         <v>569.1280905999998</v>
       </c>
       <c r="H1267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
@@ -44853,7 +45749,7 @@
         <v>568.6035905999998</v>
       </c>
       <c r="H1268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
@@ -44886,7 +45782,7 @@
         <v>571.2424905999999</v>
       </c>
       <c r="H1269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
@@ -44919,7 +45815,7 @@
         <v>571.1881905999999</v>
       </c>
       <c r="H1270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
@@ -44952,7 +45848,7 @@
         <v>574.5269905999999</v>
       </c>
       <c r="H1271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
@@ -44985,7 +45881,7 @@
         <v>580.4395905999999</v>
       </c>
       <c r="H1272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
@@ -45018,7 +45914,7 @@
         <v>586.8531905999998</v>
       </c>
       <c r="H1273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
@@ -45051,7 +45947,7 @@
         <v>586.8531905999998</v>
       </c>
       <c r="H1274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
@@ -45084,7 +45980,7 @@
         <v>588.7681905999998</v>
       </c>
       <c r="H1275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
@@ -45117,7 +46013,7 @@
         <v>586.2223905999998</v>
       </c>
       <c r="H1276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
@@ -45150,7 +46046,7 @@
         <v>588.6352905999998</v>
       </c>
       <c r="H1277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
@@ -45183,7 +46079,7 @@
         <v>586.1356905999999</v>
       </c>
       <c r="H1278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
@@ -45216,7 +46112,7 @@
         <v>584.1793905999998</v>
       </c>
       <c r="H1279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
@@ -45249,7 +46145,7 @@
         <v>584.1793905999998</v>
       </c>
       <c r="H1280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
@@ -45282,7 +46178,7 @@
         <v>582.3873905999998</v>
       </c>
       <c r="H1281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
@@ -45315,7 +46211,7 @@
         <v>582.3873905999998</v>
       </c>
       <c r="H1282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
@@ -45348,7 +46244,7 @@
         <v>585.8744905999998</v>
       </c>
       <c r="H1283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
@@ -45381,7 +46277,7 @@
         <v>589.1224627999999</v>
       </c>
       <c r="H1284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
@@ -45414,7 +46310,7 @@
         <v>588.2813627999999</v>
       </c>
       <c r="H1285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
@@ -45447,7 +46343,7 @@
         <v>589.4276906399999</v>
       </c>
       <c r="H1286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
@@ -45480,7 +46376,7 @@
         <v>587.2176906399999</v>
       </c>
       <c r="H1287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
@@ -45513,7 +46409,7 @@
         <v>586.3664906399999</v>
       </c>
       <c r="H1288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
@@ -45546,7 +46442,7 @@
         <v>584.8991906399999</v>
       </c>
       <c r="H1289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
@@ -45579,7 +46475,7 @@
         <v>584.8991906399999</v>
       </c>
       <c r="H1290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
@@ -45612,7 +46508,7 @@
         <v>581.5028906399999</v>
       </c>
       <c r="H1291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
@@ -45645,7 +46541,7 @@
         <v>579.4779906399999</v>
       </c>
       <c r="H1292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
@@ -45678,7 +46574,7 @@
         <v>579.4779906399999</v>
       </c>
       <c r="H1293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
@@ -45711,7 +46607,7 @@
         <v>579.0862906399999</v>
       </c>
       <c r="H1294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
@@ -45744,7 +46640,7 @@
         <v>577.8476906399999</v>
       </c>
       <c r="H1295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
@@ -45777,7 +46673,7 @@
         <v>579.7799906399999</v>
       </c>
       <c r="H1296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
@@ -45810,7 +46706,7 @@
         <v>583.3211906399999</v>
       </c>
       <c r="H1297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -45843,7 +46739,7 @@
         <v>584.9583906399999</v>
       </c>
       <c r="H1298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
@@ -45876,7 +46772,7 @@
         <v>584.38769064</v>
       </c>
       <c r="H1299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
@@ -45909,7 +46805,7 @@
         <v>585.06419064</v>
       </c>
       <c r="H1300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -45942,7 +46838,7 @@
         <v>587.52729064</v>
       </c>
       <c r="H1301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -45975,7 +46871,7 @@
         <v>586.2775906400001</v>
       </c>
       <c r="H1302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -46008,7 +46904,7 @@
         <v>586.2873906400001</v>
       </c>
       <c r="H1303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
@@ -46041,7 +46937,7 @@
         <v>585.6656906400001</v>
       </c>
       <c r="H1304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -46074,7 +46970,7 @@
         <v>586.7743858700001</v>
       </c>
       <c r="H1305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
@@ -46107,7 +47003,7 @@
         <v>585.4762858700001</v>
       </c>
       <c r="H1306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
@@ -46140,7 +47036,7 @@
         <v>585.4762858700001</v>
       </c>
       <c r="H1307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
@@ -46173,7 +47069,7 @@
         <v>585.4067858700001</v>
       </c>
       <c r="H1308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
@@ -46206,7 +47102,7 @@
         <v>586.1793858700001</v>
       </c>
       <c r="H1309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
@@ -46239,7 +47135,7 @@
         <v>586.1793858700001</v>
       </c>
       <c r="H1310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
@@ -46272,7 +47168,7 @@
         <v>585.8593858700001</v>
       </c>
       <c r="H1311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
@@ -46305,7 +47201,7 @@
         <v>585.8593858700001</v>
       </c>
       <c r="H1312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
@@ -46338,7 +47234,7 @@
         <v>587.1975828200001</v>
       </c>
       <c r="H1313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
@@ -46371,7 +47267,7 @@
         <v>585.4820828200001</v>
       </c>
       <c r="H1314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
@@ -46404,7 +47300,7 @@
         <v>587.0748828200001</v>
       </c>
       <c r="H1315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
@@ -46437,7 +47333,7 @@
         <v>588.6627828200001</v>
       </c>
       <c r="H1316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
@@ -46470,7 +47366,7 @@
         <v>588.6627828200001</v>
       </c>
       <c r="H1317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
@@ -46503,7 +47399,7 @@
         <v>587.39528282</v>
       </c>
       <c r="H1318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
@@ -46536,7 +47432,7 @@
         <v>587.69316428</v>
       </c>
       <c r="H1319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
@@ -46569,7 +47465,7 @@
         <v>587.15476428</v>
       </c>
       <c r="H1320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
@@ -46602,7 +47498,7 @@
         <v>586.8533642800001</v>
       </c>
       <c r="H1321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
@@ -46635,7 +47531,7 @@
         <v>587.1644426</v>
       </c>
       <c r="H1322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
@@ -46668,7 +47564,7 @@
         <v>587.1644426</v>
       </c>
       <c r="H1323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
@@ -46701,7 +47597,7 @@
         <v>588.4035426</v>
       </c>
       <c r="H1324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
@@ -46734,7 +47630,7 @@
         <v>586.1868426000001</v>
       </c>
       <c r="H1325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
@@ -46767,7 +47663,7 @@
         <v>586.1868426000001</v>
       </c>
       <c r="H1326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
@@ -46800,7 +47696,7 @@
         <v>584.8244426000001</v>
       </c>
       <c r="H1327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
@@ -46833,7 +47729,7 @@
         <v>585.2947426000001</v>
       </c>
       <c r="H1328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
@@ -46866,7 +47762,7 @@
         <v>581.4908426000001</v>
       </c>
       <c r="H1329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
@@ -46899,7 +47795,7 @@
         <v>580.9865426000001</v>
       </c>
       <c r="H1330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
@@ -46932,7 +47828,7 @@
         <v>580.0606381800001</v>
       </c>
       <c r="H1331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
@@ -46965,7 +47861,7 @@
         <v>580.0606381800001</v>
       </c>
       <c r="H1332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
@@ -46998,7 +47894,7 @@
         <v>580.0606381800001</v>
       </c>
       <c r="H1333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
@@ -47031,7 +47927,7 @@
         <v>580.0606381800001</v>
       </c>
       <c r="H1334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
@@ -47064,7 +47960,7 @@
         <v>578.91813818</v>
       </c>
       <c r="H1335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
@@ -47097,7 +47993,7 @@
         <v>578.9650381800001</v>
       </c>
       <c r="H1336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
@@ -47130,7 +48026,7 @@
         <v>578.7465381800001</v>
       </c>
       <c r="H1337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
@@ -47163,7 +48059,7 @@
         <v>579.4274381800001</v>
       </c>
       <c r="H1338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1338" t="inlineStr"/>
       <c r="J1338" t="inlineStr"/>
@@ -47196,7 +48092,7 @@
         <v>577.2313381800001</v>
       </c>
       <c r="H1339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1339" t="inlineStr"/>
       <c r="J1339" t="inlineStr"/>
@@ -47229,7 +48125,7 @@
         <v>577.24053818</v>
       </c>
       <c r="H1340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1340" t="inlineStr"/>
       <c r="J1340" t="inlineStr"/>
@@ -47262,7 +48158,7 @@
         <v>577.1923381800001</v>
       </c>
       <c r="H1341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1341" t="inlineStr"/>
       <c r="J1341" t="inlineStr"/>
@@ -47295,7 +48191,7 @@
         <v>577.2914381800001</v>
       </c>
       <c r="H1342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1342" t="inlineStr"/>
       <c r="J1342" t="inlineStr"/>
@@ -47328,7 +48224,7 @@
         <v>576.9450381800001</v>
       </c>
       <c r="H1343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1343" t="inlineStr"/>
       <c r="J1343" t="inlineStr"/>
@@ -47361,7 +48257,7 @@
         <v>566.5401381800001</v>
       </c>
       <c r="H1344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1344" t="inlineStr"/>
       <c r="J1344" t="inlineStr"/>
@@ -47394,7 +48290,7 @@
         <v>566.5401381800001</v>
       </c>
       <c r="H1345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1345" t="inlineStr"/>
       <c r="J1345" t="inlineStr"/>
@@ -47427,7 +48323,7 @@
         <v>567.1129381800001</v>
       </c>
       <c r="H1346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1346" t="inlineStr"/>
       <c r="J1346" t="inlineStr"/>
@@ -47460,7 +48356,7 @@
         <v>565.5335381800002</v>
       </c>
       <c r="H1347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1347" t="inlineStr"/>
       <c r="J1347" t="inlineStr"/>
@@ -47493,7 +48389,7 @@
         <v>566.2443381800001</v>
       </c>
       <c r="H1348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1348" t="inlineStr"/>
       <c r="J1348" t="inlineStr"/>
@@ -47526,7 +48422,7 @@
         <v>573.7917381800002</v>
       </c>
       <c r="H1349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1349" t="inlineStr"/>
       <c r="J1349" t="inlineStr"/>
@@ -47559,7 +48455,7 @@
         <v>573.8556381800001</v>
       </c>
       <c r="H1350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1350" t="inlineStr"/>
       <c r="J1350" t="inlineStr"/>
@@ -47592,7 +48488,7 @@
         <v>573.7691381800001</v>
       </c>
       <c r="H1351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1351" t="inlineStr"/>
       <c r="J1351" t="inlineStr"/>
@@ -47625,7 +48521,7 @@
         <v>574.6623283600002</v>
       </c>
       <c r="H1352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1352" t="inlineStr"/>
       <c r="J1352" t="inlineStr"/>
@@ -47636,6 +48532,6 @@
       <c r="M1352" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest BTC.xlsx
+++ b/BackTest/2019-10-21 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3643,11 +3643,9 @@
         <v>20.22107015999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3721,11 +3719,9 @@
         <v>19.84787015999999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3799,11 +3795,9 @@
         <v>19.30647015999999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -5008,11 +5002,9 @@
         <v>17.10393088999999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>9400000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -5086,11 +5078,9 @@
         <v>23.46373088999999</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>9402000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -5125,11 +5115,9 @@
         <v>23.46373088999999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5164,11 +5152,9 @@
         <v>32.39483088999999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5203,11 +5189,9 @@
         <v>29.54403088999999</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>9411000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5242,11 +5226,9 @@
         <v>29.19133088999999</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5281,11 +5263,9 @@
         <v>29.30133088999999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5320,11 +5300,9 @@
         <v>29.57943088999999</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5359,11 +5337,9 @@
         <v>30.47283088999999</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5398,11 +5374,9 @@
         <v>30.47283088999999</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>9411000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5437,11 +5411,9 @@
         <v>30.40366887999999</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>9411000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5476,11 +5448,9 @@
         <v>30.46630686999999</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5515,11 +5485,9 @@
         <v>30.21925062999999</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5554,11 +5522,9 @@
         <v>32.78765062999999</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5593,11 +5559,9 @@
         <v>32.78765062999999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5632,11 +5596,9 @@
         <v>33.25825062999998</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5671,11 +5633,9 @@
         <v>32.93665062999999</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>9413000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5710,11 +5670,9 @@
         <v>30.61865062999999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5749,11 +5707,9 @@
         <v>32.71705062999999</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5788,11 +5744,9 @@
         <v>25.98955062999999</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5827,11 +5781,9 @@
         <v>28.61285062999999</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5866,11 +5818,9 @@
         <v>28.22245062999999</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5905,11 +5855,9 @@
         <v>30.05671025999999</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5944,11 +5892,9 @@
         <v>30.36461025999999</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5983,11 +5929,9 @@
         <v>45.10571025999999</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>9413000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -6022,11 +5966,9 @@
         <v>101.71643295</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -6357,11 +6299,9 @@
         <v>111.04123295</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>9445000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6433,11 +6373,9 @@
         <v>111.93803295</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>9448000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -7175,11 +7113,9 @@
         <v>116.67343434</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>9441000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -7325,11 +7261,9 @@
         <v>114.43063434</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>9431000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -7364,11 +7298,9 @@
         <v>117.07143434</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>9429000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -7403,11 +7335,9 @@
         <v>114.71843434</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>9430000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7479,11 +7409,9 @@
         <v>114.27143434</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>9432000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -8702,11 +8630,9 @@
         <v>125.97763303</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>9432000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8778,11 +8704,9 @@
         <v>119.52253303</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>9429000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8854,11 +8778,9 @@
         <v>119.29193303</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>9416000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8893,11 +8815,9 @@
         <v>118.43383303</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8932,11 +8852,9 @@
         <v>118.23743303</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8971,11 +8889,9 @@
         <v>118.85913303</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>9416000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -9010,11 +8926,9 @@
         <v>120.30463303</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>9419000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -9049,11 +8963,9 @@
         <v>120.68323303</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -9088,11 +9000,9 @@
         <v>122.05243303</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -9127,11 +9037,9 @@
         <v>120.72923303</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>9426000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -9166,11 +9074,9 @@
         <v>121.93013303</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -9205,11 +9111,9 @@
         <v>121.93013303</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -9244,11 +9148,9 @@
         <v>121.45813303</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -9283,11 +9185,9 @@
         <v>120.61653303</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>9419000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -9322,11 +9222,9 @@
         <v>121.40653303</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>9418000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -9361,11 +9259,9 @@
         <v>119.80063303</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -9400,11 +9296,9 @@
         <v>123.04563303</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>9419000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9439,11 +9333,9 @@
         <v>126.14783303</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -9478,11 +9370,9 @@
         <v>126.10063303</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9517,11 +9407,9 @@
         <v>124.05123303</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -9556,11 +9444,9 @@
         <v>124.05123303</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>9415000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9595,11 +9481,9 @@
         <v>124.05923303</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>9415000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9634,11 +9518,9 @@
         <v>123.55073303</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>9419000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9673,11 +9555,9 @@
         <v>123.74343303</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9712,11 +9592,9 @@
         <v>123.40503303</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9751,11 +9629,9 @@
         <v>131.10833303</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>9418000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9790,11 +9666,9 @@
         <v>131.10833303</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>9427000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9829,11 +9703,9 @@
         <v>129.92473303</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>9427000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9868,11 +9740,9 @@
         <v>128.84086202</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>9426000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9907,11 +9777,9 @@
         <v>129.5130604</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9946,11 +9814,9 @@
         <v>130.9779604</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>9426000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9985,11 +9851,9 @@
         <v>130.9436604</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>9428000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -10024,11 +9888,9 @@
         <v>130.9436604</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>9427000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -10063,11 +9925,9 @@
         <v>131.5417604</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>9427000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -10102,11 +9962,9 @@
         <v>131.0331604</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>9428000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -10141,11 +9999,9 @@
         <v>130.81720164</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -10180,11 +10036,9 @@
         <v>131.73268765</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -10219,11 +10073,9 @@
         <v>131.73268765</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -10258,11 +10110,9 @@
         <v>133.07828765</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -10297,11 +10147,9 @@
         <v>139.07588765</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>9430000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -10336,11 +10184,9 @@
         <v>139.07588765</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>9433000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -10375,11 +10221,9 @@
         <v>134.86408765</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>9433000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -10451,11 +10295,9 @@
         <v>134.9098936699999</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>9432000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -10527,11 +10369,9 @@
         <v>133.78939367</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>9432000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -10566,11 +10406,9 @@
         <v>135.3120936699999</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>9426000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -10605,11 +10443,9 @@
         <v>135.1313936699999</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>9428000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10644,11 +10480,9 @@
         <v>135.4145936699999</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>9426000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10683,11 +10517,9 @@
         <v>135.4145936699999</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>9430000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10722,11 +10554,9 @@
         <v>135.7769936699999</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>9430000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10761,11 +10591,9 @@
         <v>135.7769936699999</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>9432000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10800,11 +10628,9 @@
         <v>135.7769936699999</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>9432000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10839,11 +10665,9 @@
         <v>135.7769936699999</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>9432000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10878,11 +10702,9 @@
         <v>136.2228936699999</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>9432000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10917,11 +10739,9 @@
         <v>136.2228936699999</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>9434000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10956,11 +10776,9 @@
         <v>138.5626936699999</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>9434000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10995,11 +10813,9 @@
         <v>138.4093936699999</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>9437000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -11034,11 +10850,9 @@
         <v>138.6602936699999</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>9435000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -11073,11 +10887,9 @@
         <v>137.5672936699999</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>9436000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -11112,11 +10924,9 @@
         <v>139.2401115999999</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>9432000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -11151,11 +10961,9 @@
         <v>139.37002702</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>9437000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -11190,11 +10998,9 @@
         <v>138.2311270199999</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>9440000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -11229,11 +11035,9 @@
         <v>138.2311270199999</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>9438000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -11268,11 +11072,9 @@
         <v>136.27772702</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>9438000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -11344,11 +11146,9 @@
         <v>133.54521697</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>9428000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -11383,11 +11183,9 @@
         <v>133.71331697</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>9427000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -11422,11 +11220,9 @@
         <v>132.81371697</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>9429000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -11461,11 +11257,9 @@
         <v>132.14571697</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>9427000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -11500,11 +11294,9 @@
         <v>132.31991697</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>9426000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -11539,11 +11331,9 @@
         <v>132.02761697</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>9428000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -11578,11 +11368,9 @@
         <v>136.54851697</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -11617,11 +11405,9 @@
         <v>134.94521697</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>9427000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -11656,11 +11442,9 @@
         <v>136.86611678</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -11695,11 +11479,9 @@
         <v>137.94871678</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -11734,11 +11516,9 @@
         <v>137.48641678</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>9426000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -11773,11 +11553,9 @@
         <v>137.48641678</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -11812,11 +11590,9 @@
         <v>137.48641678</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -11851,11 +11627,9 @@
         <v>135.77891678</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -11890,11 +11664,9 @@
         <v>135.89331678</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -11929,11 +11701,9 @@
         <v>135.09491678</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -11968,11 +11738,9 @@
         <v>134.82541678</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -12007,11 +11775,9 @@
         <v>134.82541678</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -12046,11 +11812,9 @@
         <v>134.82541678</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -12085,11 +11849,9 @@
         <v>135.41262262</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -12124,11 +11886,9 @@
         <v>135.10722262</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -12163,11 +11923,9 @@
         <v>135.10722262</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -12202,11 +11960,9 @@
         <v>135.27222262</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -12241,11 +11997,9 @@
         <v>139.89782281</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>9427000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -12280,11 +12034,9 @@
         <v>141.64076704</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>9428000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -12319,11 +12071,9 @@
         <v>141.25256704</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>9429000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -12358,11 +12108,9 @@
         <v>139.22306704</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>9428000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -12397,11 +12145,9 @@
         <v>139.60586704</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -12436,11 +12182,9 @@
         <v>150.13466704</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>9426000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -12475,11 +12219,9 @@
         <v>159.9500323</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>9436000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -24169,18 +23911,16 @@
         <v>248.2465355499998</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L630" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L630" t="inlineStr"/>
       <c r="M630" t="inlineStr"/>
     </row>
     <row r="631">
@@ -24206,15 +23946,11 @@
         <v>247.5209355499998</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -24247,11 +23983,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -24284,11 +24016,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -24321,11 +24049,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24358,11 +24082,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24395,11 +24115,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24432,11 +24148,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24469,11 +24181,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24506,11 +24214,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24543,11 +24247,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24580,11 +24280,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24617,11 +24313,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24654,11 +24346,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24691,11 +24379,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24724,15 +24408,11 @@
         <v>312.1054550599998</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24761,15 +24441,11 @@
         <v>311.3812550599998</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24798,15 +24474,11 @@
         <v>318.4280550599998</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24835,15 +24507,11 @@
         <v>318.4576550599998</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24872,15 +24540,11 @@
         <v>318.9485670699998</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24909,15 +24573,11 @@
         <v>319.0876670699998</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24946,15 +24606,11 @@
         <v>344.1959670699998</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24983,15 +24639,11 @@
         <v>348.6294670699997</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -25020,15 +24672,11 @@
         <v>349.9527670699998</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -25057,15 +24705,11 @@
         <v>352.1962670699997</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -25094,15 +24738,11 @@
         <v>356.4852626199997</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -25131,15 +24771,11 @@
         <v>360.2753626199997</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -25168,15 +24804,11 @@
         <v>355.7025626199998</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -25205,15 +24837,11 @@
         <v>354.3454626199998</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -25242,15 +24870,11 @@
         <v>364.2254626199997</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -25279,15 +24903,11 @@
         <v>354.6631626499997</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -25316,15 +24936,11 @@
         <v>352.0091626499997</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -25353,15 +24969,11 @@
         <v>358.5911662299997</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -25394,11 +25006,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -25427,15 +25035,11 @@
         <v>360.2841827499997</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25464,15 +25068,11 @@
         <v>352.5012827499997</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25501,15 +25101,11 @@
         <v>334.2031827499997</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25538,15 +25134,11 @@
         <v>347.7717298999997</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25575,15 +25167,11 @@
         <v>347.9885298999997</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25612,15 +25200,11 @@
         <v>344.7134298999997</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25649,15 +25233,11 @@
         <v>340.7237298999997</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25686,15 +25266,11 @@
         <v>340.7237298999997</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25723,15 +25299,11 @@
         <v>339.8310298999997</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25760,15 +25332,11 @@
         <v>335.3238298999997</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25797,15 +25365,11 @@
         <v>335.9837298999997</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25834,15 +25398,11 @@
         <v>336.9609298999997</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25871,15 +25431,11 @@
         <v>337.8737298999997</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25908,15 +25464,11 @@
         <v>337.4592298999997</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25945,15 +25497,11 @@
         <v>337.4592298999997</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25982,15 +25530,11 @@
         <v>338.6919298999997</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -26019,15 +25563,11 @@
         <v>342.3525298999997</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -26056,15 +25596,11 @@
         <v>340.1719474499997</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -26093,15 +25629,11 @@
         <v>340.1719474499997</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -26130,15 +25662,11 @@
         <v>338.9651474499997</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -26167,15 +25695,11 @@
         <v>337.4531474499997</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -26204,15 +25728,11 @@
         <v>337.9475474799997</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -26241,15 +25761,11 @@
         <v>337.9475474799997</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -26278,15 +25794,11 @@
         <v>337.9431474799998</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -26315,15 +25827,11 @@
         <v>338.0938474799997</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -26356,11 +25864,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -26393,11 +25897,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -26430,11 +25930,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -26467,11 +25963,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -26504,11 +25996,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -26541,11 +26029,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -26578,11 +26062,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -26615,11 +26095,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26652,11 +26128,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26689,11 +26161,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26726,11 +26194,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26763,11 +26227,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26800,11 +26260,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26837,11 +26293,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26874,11 +26326,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26911,11 +26359,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26948,11 +26392,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26985,11 +26425,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -27022,11 +26458,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -27059,11 +26491,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -27096,11 +26524,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -27133,11 +26557,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -27170,11 +26590,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -27207,11 +26623,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -27244,11 +26656,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -27281,11 +26689,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -27318,11 +26722,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -27355,11 +26755,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -27392,11 +26788,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -27429,11 +26821,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -27466,11 +26854,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -27503,11 +26887,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -27540,11 +26920,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -27577,11 +26953,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -27614,11 +26986,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -27651,11 +27019,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -27688,11 +27052,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -27725,11 +27085,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -27762,11 +27118,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -27799,11 +27151,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -27836,11 +27184,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -27873,11 +27217,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -27910,11 +27250,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -27947,11 +27283,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -27984,11 +27316,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -28021,11 +27349,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -28058,11 +27382,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -28095,11 +27415,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -28132,11 +27448,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -28169,11 +27481,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -28206,11 +27514,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -28243,11 +27547,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -28280,11 +27580,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -28317,11 +27613,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -28354,11 +27646,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -28391,11 +27679,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -28428,11 +27712,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -28465,11 +27745,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -28502,11 +27778,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -28539,11 +27811,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -28576,11 +27844,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -28613,11 +27877,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -28650,11 +27910,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -28687,11 +27943,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -28724,11 +27976,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -28761,11 +28009,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -28798,11 +28042,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -28835,11 +28075,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -28872,11 +28108,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -28909,11 +28141,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28946,11 +28174,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -28983,11 +28207,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -29016,16 +28236,14 @@
         <v>381.5192055299998</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
+      <c r="L761" t="n">
+        <v>1</v>
+      </c>
       <c r="M761" t="inlineStr"/>
     </row>
     <row r="762">
@@ -29051,7 +28269,7 @@
         <v>375.4337055299998</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -29084,7 +28302,7 @@
         <v>382.2133055299998</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -29117,7 +28335,7 @@
         <v>376.6052055299998</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -29150,7 +28368,7 @@
         <v>382.8494623799998</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -29183,7 +28401,7 @@
         <v>381.6892522899998</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -29216,7 +28434,7 @@
         <v>382.2026522899998</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -29249,7 +28467,7 @@
         <v>383.7582522899998</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -29282,7 +28500,7 @@
         <v>390.9588493899998</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -29315,7 +28533,7 @@
         <v>396.1620522899998</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -29348,7 +28566,7 @@
         <v>405.8297480499998</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -29381,7 +28599,7 @@
         <v>390.7462892199998</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -29414,7 +28632,7 @@
         <v>387.5782078799998</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -29447,7 +28665,7 @@
         <v>387.8308078799998</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -29480,7 +28698,7 @@
         <v>385.2705052199998</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -29513,7 +28731,7 @@
         <v>385.2705052199998</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -29546,7 +28764,7 @@
         <v>378.8576052199998</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -29579,7 +28797,7 @@
         <v>378.8576052199998</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -29612,7 +28830,7 @@
         <v>379.6421052199998</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -29645,7 +28863,7 @@
         <v>377.8724052199998</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -29678,7 +28896,7 @@
         <v>379.9742052199998</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -29711,7 +28929,7 @@
         <v>385.4830052199998</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -29744,7 +28962,7 @@
         <v>384.4746052199998</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -29777,7 +28995,7 @@
         <v>384.0901052199998</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -29810,7 +29028,7 @@
         <v>387.0423052199998</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -29843,7 +29061,7 @@
         <v>386.6856052199998</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -29876,7 +29094,7 @@
         <v>400.8724052199998</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -29909,7 +29127,7 @@
         <v>426.7189052199998</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29942,7 +29160,7 @@
         <v>441.0230052199998</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29975,7 +29193,7 @@
         <v>427.2819052199998</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -30008,7 +29226,7 @@
         <v>424.8114052199998</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -30041,7 +29259,7 @@
         <v>424.4069052199998</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -30074,7 +29292,7 @@
         <v>424.4069052199998</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -30107,7 +29325,7 @@
         <v>424.9298052199998</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -30140,7 +29358,7 @@
         <v>430.5622530299998</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -30173,7 +29391,7 @@
         <v>433.6040530299998</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -30206,7 +29424,7 @@
         <v>434.9664547999998</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -30239,7 +29457,7 @@
         <v>438.5359547999998</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -30272,7 +29490,7 @@
         <v>446.3609318299999</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -30305,7 +29523,7 @@
         <v>476.6978318299999</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -30338,7 +29556,7 @@
         <v>465.7915966299998</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -30371,7 +29589,7 @@
         <v>468.4428966299998</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -30404,7 +29622,7 @@
         <v>473.4965166399998</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -30437,7 +29655,7 @@
         <v>466.3979166399998</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -30470,7 +29688,7 @@
         <v>472.3481166399998</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -30503,7 +29721,7 @@
         <v>473.9916166399998</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -30536,7 +29754,7 @@
         <v>469.3157166399998</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -30569,7 +29787,7 @@
         <v>467.3334166399998</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -30602,7 +29820,7 @@
         <v>468.2810166399998</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -30635,7 +29853,7 @@
         <v>475.2101166399999</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -30668,7 +29886,7 @@
         <v>472.9308166399999</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -30701,7 +29919,7 @@
         <v>475.8817617699999</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -30734,7 +29952,7 @@
         <v>473.8032617699998</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -30767,7 +29985,7 @@
         <v>477.4526617699998</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -30800,7 +30018,7 @@
         <v>475.2679617699998</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30833,7 +30051,7 @@
         <v>478.5848617699998</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30866,7 +30084,7 @@
         <v>476.5211311199998</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -30899,7 +30117,7 @@
         <v>476.5211311199998</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -30932,7 +30150,7 @@
         <v>477.5466282399998</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -30965,7 +30183,7 @@
         <v>476.7171282399998</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -30998,7 +30216,7 @@
         <v>473.5612282399998</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -31031,7 +30249,7 @@
         <v>453.4411282399998</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -31064,7 +30282,7 @@
         <v>453.4411282399998</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -31097,7 +30315,7 @@
         <v>456.5310281899999</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -31130,7 +30348,7 @@
         <v>460.7953281899999</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -31163,7 +30381,7 @@
         <v>461.2667804899999</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -31196,7 +30414,7 @@
         <v>461.0555804899998</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -31229,7 +30447,7 @@
         <v>459.1427804899998</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -31262,7 +30480,7 @@
         <v>459.1427804899998</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -31328,7 +30546,7 @@
         <v>456.8005804899998</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -31394,7 +30612,7 @@
         <v>461.3475804899999</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -31427,7 +30645,7 @@
         <v>461.3475804899999</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -31460,7 +30678,7 @@
         <v>462.0420804899999</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -31493,7 +30711,7 @@
         <v>460.9177804899999</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -31526,7 +30744,7 @@
         <v>452.4375804899998</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -31559,7 +30777,7 @@
         <v>460.1708804899998</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -31592,7 +30810,7 @@
         <v>465.1077804899998</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -31625,7 +30843,7 @@
         <v>460.5013804899998</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -31658,7 +30876,7 @@
         <v>463.0502804899998</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -31691,7 +30909,7 @@
         <v>465.0431671299998</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -31724,7 +30942,7 @@
         <v>464.5320671299998</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -31757,7 +30975,7 @@
         <v>460.6283887499998</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -31790,7 +31008,7 @@
         <v>460.5689887499998</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -31823,7 +31041,7 @@
         <v>459.6345887499999</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -31856,7 +31074,7 @@
         <v>459.6345887499999</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -31889,7 +31107,7 @@
         <v>457.4337887499998</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -31922,7 +31140,7 @@
         <v>455.2322887499998</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -31955,7 +31173,7 @@
         <v>439.4261887499998</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -31988,7 +31206,7 @@
         <v>434.1164887499998</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -32021,7 +31239,7 @@
         <v>426.8974887499998</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -32054,7 +31272,7 @@
         <v>418.9976887499998</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -32087,7 +31305,7 @@
         <v>431.2383887499998</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -32120,7 +31338,7 @@
         <v>429.1770887499998</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -32153,7 +31371,7 @@
         <v>427.0329887499998</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -32186,7 +31404,7 @@
         <v>432.0782887499998</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -32219,7 +31437,7 @@
         <v>438.0061378099998</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -32252,7 +31470,7 @@
         <v>439.3549378099998</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -32285,7 +31503,7 @@
         <v>438.9989378099998</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -32318,7 +31536,7 @@
         <v>438.9989378099998</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -32351,7 +31569,7 @@
         <v>438.9989378099998</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -32384,7 +31602,7 @@
         <v>437.4462378099998</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -32417,7 +31635,7 @@
         <v>442.6805378099998</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -32450,7 +31668,7 @@
         <v>442.6805378099998</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -32483,7 +31701,7 @@
         <v>443.1698378099998</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -32516,7 +31734,7 @@
         <v>445.3448378099998</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -32549,7 +31767,7 @@
         <v>453.3378378099998</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -32582,7 +31800,7 @@
         <v>454.8709378099998</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -32615,7 +31833,7 @@
         <v>454.7438378099998</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -32648,7 +31866,7 @@
         <v>454.7437378099999</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -32681,7 +31899,7 @@
         <v>455.3450378099998</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -32714,7 +31932,7 @@
         <v>458.4857378099998</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -32747,7 +31965,7 @@
         <v>459.3236378099998</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -32813,7 +32031,7 @@
         <v>458.7263116499998</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -32846,7 +32064,7 @@
         <v>457.9026116499998</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -32879,7 +32097,7 @@
         <v>457.7521116499998</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -32912,7 +32130,7 @@
         <v>456.2240116499998</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -32945,7 +32163,7 @@
         <v>453.2111116499998</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -32978,7 +32196,7 @@
         <v>453.2111116499998</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -33011,7 +32229,7 @@
         <v>446.7013116499998</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -33044,7 +32262,7 @@
         <v>447.5960116499998</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -33077,7 +32295,7 @@
         <v>444.1961116499998</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -33110,7 +32328,7 @@
         <v>446.6048116499998</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -33143,7 +32361,7 @@
         <v>447.7236116499998</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -33176,7 +32394,7 @@
         <v>444.0623116499999</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -33209,7 +32427,7 @@
         <v>444.0623116499999</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -33242,7 +32460,7 @@
         <v>446.1059116499999</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -33275,7 +32493,7 @@
         <v>445.4074341799999</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -33308,7 +32526,7 @@
         <v>445.4074341799999</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -33341,7 +32559,7 @@
         <v>453.2591567099999</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -33374,7 +32592,7 @@
         <v>453.2073567099999</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -33407,7 +32625,7 @@
         <v>453.9524567099999</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -33440,7 +32658,7 @@
         <v>452.7478567099998</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -33473,7 +32691,7 @@
         <v>453.1123567099999</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -33506,7 +32724,7 @@
         <v>453.1673567099999</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -33539,7 +32757,7 @@
         <v>453.1673567099999</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -33572,7 +32790,7 @@
         <v>452.5117567099999</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -33605,7 +32823,7 @@
         <v>452.7961567099999</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -33638,7 +32856,7 @@
         <v>448.6899619199999</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -33671,7 +32889,7 @@
         <v>452.5248619199999</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -33704,7 +32922,7 @@
         <v>452.5637619199999</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -33737,7 +32955,7 @@
         <v>455.8243619199999</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -33770,7 +32988,7 @@
         <v>453.8163540999999</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -33803,7 +33021,7 @@
         <v>450.6829540999999</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -33836,7 +33054,7 @@
         <v>449.3009540999999</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -33869,7 +33087,7 @@
         <v>455.5705540999999</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -33902,7 +33120,7 @@
         <v>456.1656880899999</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -33935,7 +33153,7 @@
         <v>455.9276880899999</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -33968,7 +33186,7 @@
         <v>457.06188809</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -34001,7 +33219,7 @@
         <v>458.00428809</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -34034,7 +33252,7 @@
         <v>465.28048809</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -34067,7 +33285,7 @@
         <v>468.20120909</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -34100,7 +33318,7 @@
         <v>466.06470909</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -34133,7 +33351,7 @@
         <v>464.92390909</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -34166,7 +33384,7 @@
         <v>467.19600909</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -34199,7 +33417,7 @@
         <v>466.34650909</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -34232,7 +33450,7 @@
         <v>468.06050909</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -34265,7 +33483,7 @@
         <v>468.06050909</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -34298,7 +33516,7 @@
         <v>468.06050909</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -34331,7 +33549,7 @@
         <v>469.90430909</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -34364,7 +33582,7 @@
         <v>469.90430909</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -34397,7 +33615,7 @@
         <v>471.2363541</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -34430,7 +33648,7 @@
         <v>471.2363541</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -34463,7 +33681,7 @@
         <v>475.7586541</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -34496,7 +33714,7 @@
         <v>475.6923541</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -34529,7 +33747,7 @@
         <v>474.7658541</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -34562,7 +33780,7 @@
         <v>474.0680541</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -34595,7 +33813,7 @@
         <v>473.1347541000001</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -34628,7 +33846,7 @@
         <v>471.8099541000001</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -34661,7 +33879,7 @@
         <v>468.7376541000001</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -34694,7 +33912,7 @@
         <v>466.4284994700001</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -34727,7 +33945,7 @@
         <v>468.5735994700001</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -34760,7 +33978,7 @@
         <v>469.9101994700001</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -34793,7 +34011,7 @@
         <v>469.9101994700001</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -34826,7 +34044,7 @@
         <v>468.91709947</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -34859,7 +34077,7 @@
         <v>471.13139947</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34892,7 +34110,7 @@
         <v>471.13139947</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34925,7 +34143,7 @@
         <v>470.58919947</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34958,7 +34176,7 @@
         <v>467.74089947</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -34991,7 +34209,7 @@
         <v>467.07559947</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -35024,7 +34242,7 @@
         <v>463.6982994700001</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -35057,7 +34275,7 @@
         <v>465.1531994700001</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -35090,7 +34308,7 @@
         <v>464.66639947</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -35123,7 +34341,7 @@
         <v>466.4674994700001</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -35156,7 +34374,7 @@
         <v>463.4893994700001</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -35189,7 +34407,7 @@
         <v>458.1187994700001</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -35222,7 +34440,7 @@
         <v>455.47669947</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -35255,7 +34473,7 @@
         <v>449.51969947</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -35288,7 +34506,7 @@
         <v>448.6651994700001</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -35321,7 +34539,7 @@
         <v>446.8836936800001</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -35354,7 +34572,7 @@
         <v>455.2452652900001</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -35387,7 +34605,7 @@
         <v>454.0436652900001</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -35420,7 +34638,7 @@
         <v>446.0891652900001</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -35453,7 +34671,7 @@
         <v>449.3565652900001</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -35486,7 +34704,7 @@
         <v>447.0285652900001</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -35519,7 +34737,7 @@
         <v>442.8457905700001</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -35552,7 +34770,7 @@
         <v>442.8457905700001</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -35585,7 +34803,7 @@
         <v>441.3225905700002</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -35618,7 +34836,7 @@
         <v>441.3225905700002</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -35651,7 +34869,7 @@
         <v>441.1183905700001</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -35684,7 +34902,7 @@
         <v>445.1278905700001</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -35717,7 +34935,7 @@
         <v>444.4561580500002</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -35750,7 +34968,7 @@
         <v>443.4401580500002</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -35783,7 +35001,7 @@
         <v>446.0007897100002</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -35816,7 +35034,7 @@
         <v>446.8045897100002</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -35849,7 +35067,7 @@
         <v>446.8045897100002</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -35882,7 +35100,7 @@
         <v>446.4778897100002</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -35915,7 +35133,7 @@
         <v>443.8339897100002</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -35948,7 +35166,7 @@
         <v>443.8339897100002</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -35981,7 +35199,7 @@
         <v>446.7850324400002</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -36014,7 +35232,7 @@
         <v>450.3610897100002</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -36047,7 +35265,7 @@
         <v>450.0112897100001</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -36080,7 +35298,7 @@
         <v>452.5426295900002</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -36113,7 +35331,7 @@
         <v>451.5320295900001</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -36146,7 +35364,7 @@
         <v>453.1844295900001</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -36179,7 +35397,7 @@
         <v>456.5486295900001</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -36212,7 +35430,7 @@
         <v>455.4786295900001</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -36245,7 +35463,7 @@
         <v>451.7170023900001</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -36278,7 +35496,7 @@
         <v>436.7472023900001</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -36311,7 +35529,7 @@
         <v>436.0506023900001</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -36344,7 +35562,7 @@
         <v>434.0049023900001</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -36377,7 +35595,7 @@
         <v>432.0872023900001</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -36410,7 +35628,7 @@
         <v>430.6270023900001</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -36443,7 +35661,7 @@
         <v>429.4319023900001</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -36476,7 +35694,7 @@
         <v>429.1719278200001</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -36509,7 +35727,7 @@
         <v>428.9449278200001</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -36542,7 +35760,7 @@
         <v>426.8655278200001</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -36575,7 +35793,7 @@
         <v>413.9969278200001</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -36608,7 +35826,7 @@
         <v>421.11312782</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -36641,7 +35859,7 @@
         <v>419.56082782</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -36674,7 +35892,7 @@
         <v>418.88882782</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -36938,7 +36156,7 @@
         <v>441.0977260499999</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -36971,7 +36189,7 @@
         <v>440.3022260499999</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -37004,7 +36222,7 @@
         <v>439.1953260499999</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -37202,7 +36420,7 @@
         <v>444.1345622999999</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -37400,7 +36618,7 @@
         <v>454.9623622999999</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -37433,7 +36651,7 @@
         <v>454.9623622999999</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -37466,7 +36684,7 @@
         <v>451.3281622999999</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -37532,7 +36750,7 @@
         <v>452.8633622999999</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -37565,7 +36783,7 @@
         <v>453.7256622999999</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -37664,7 +36882,7 @@
         <v>460.6119123999999</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -37697,7 +36915,7 @@
         <v>465.6268123999999</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -37730,7 +36948,7 @@
         <v>469.8515123999999</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -37763,7 +36981,7 @@
         <v>475.7399123999999</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -37796,7 +37014,7 @@
         <v>477.1434123999999</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -37829,7 +37047,7 @@
         <v>472.6436123999999</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -37862,7 +37080,7 @@
         <v>472.6436123999999</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -37895,7 +37113,7 @@
         <v>473.2820123999999</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37928,7 +37146,7 @@
         <v>470.2771123999999</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -37961,7 +37179,7 @@
         <v>468.2331123999999</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -37994,7 +37212,7 @@
         <v>475.0018123999999</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -38027,7 +37245,7 @@
         <v>478.6482123999999</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -38060,7 +37278,7 @@
         <v>486.2077123999999</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -38093,7 +37311,7 @@
         <v>487.1423123999999</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -38126,7 +37344,7 @@
         <v>487.8576123999999</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -38159,7 +37377,7 @@
         <v>498.6875257799999</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -38192,7 +37410,7 @@
         <v>503.7137257799999</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -38225,7 +37443,7 @@
         <v>503.7137257799999</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -38258,7 +37476,7 @@
         <v>503.47112578</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -38291,7 +37509,7 @@
         <v>502.9092679399999</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -38324,7 +37542,7 @@
         <v>500.63656794</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -38357,7 +37575,7 @@
         <v>501.5068679399999</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -38390,7 +37608,7 @@
         <v>501.5068679399999</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -38423,7 +37641,7 @@
         <v>504.11776794</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -38456,7 +37674,7 @@
         <v>502.89036794</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -38489,7 +37707,7 @@
         <v>502.32246794</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -38522,7 +37740,7 @@
         <v>497.84576794</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -38555,7 +37773,7 @@
         <v>497.2387679399999</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -38588,7 +37806,7 @@
         <v>498.33176794</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -38621,7 +37839,7 @@
         <v>500.2659679399999</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -38654,7 +37872,7 @@
         <v>500.7566679399999</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -38687,7 +37905,7 @@
         <v>499.2589679399999</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -38720,7 +37938,7 @@
         <v>496.4184679399999</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -38753,7 +37971,7 @@
         <v>501.7366777999999</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -38786,7 +38004,7 @@
         <v>505.30790816</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -38819,7 +38037,7 @@
         <v>503.54930816</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -38852,7 +38070,7 @@
         <v>508.6986081599999</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -38885,7 +38103,7 @@
         <v>508.69850816</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -38918,7 +38136,7 @@
         <v>509.6870081599999</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -38951,7 +38169,7 @@
         <v>512.35060585</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -38984,7 +38202,7 @@
         <v>515.0900152199999</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -39017,7 +38235,7 @@
         <v>517.7156152199999</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -39050,7 +38268,7 @@
         <v>518.5224152199999</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -39083,7 +38301,7 @@
         <v>516.7424152199999</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -39116,7 +38334,7 @@
         <v>516.7468152199999</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -39149,7 +38367,7 @@
         <v>515.66461522</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -39182,7 +38400,7 @@
         <v>514.86250918</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -39215,7 +38433,7 @@
         <v>514.86250918</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -39248,7 +38466,7 @@
         <v>514.79680918</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -39281,7 +38499,7 @@
         <v>513.6652091799999</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -39314,7 +38532,7 @@
         <v>513.6652091799999</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -39347,7 +38565,7 @@
         <v>513.75200918</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -39380,7 +38598,7 @@
         <v>512.92710918</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -39413,7 +38631,7 @@
         <v>512.24340918</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -39446,7 +38664,7 @@
         <v>512.24340918</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -39479,7 +38697,7 @@
         <v>515.11960918</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -39512,7 +38730,7 @@
         <v>516.22070918</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -39545,7 +38763,7 @@
         <v>517.9369091799999</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -39578,7 +38796,7 @@
         <v>515.11520918</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -39611,7 +38829,7 @@
         <v>522.7327091799999</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -39644,7 +38862,7 @@
         <v>523.0720091799999</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -39677,7 +38895,7 @@
         <v>523.9430091799999</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -39710,7 +38928,7 @@
         <v>523.9430091799999</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -39743,7 +38961,7 @@
         <v>523.9430091799999</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -39776,7 +38994,7 @@
         <v>522.3355091799999</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -39809,7 +39027,7 @@
         <v>522.8858091399999</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -39842,7 +39060,7 @@
         <v>521.1155091399999</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -39875,7 +39093,7 @@
         <v>521.7236091399999</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -39908,7 +39126,7 @@
         <v>520.5514091399999</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -39941,7 +39159,7 @@
         <v>519.78590917</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -39974,7 +39192,7 @@
         <v>520.91770917</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -40007,7 +39225,7 @@
         <v>518.7263091699999</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -40040,7 +39258,7 @@
         <v>517.8911240799999</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -40073,7 +39291,7 @@
         <v>516.0714240799999</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -40106,7 +39324,7 @@
         <v>519.2972241299999</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -40139,7 +39357,7 @@
         <v>516.2885241299999</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -40172,7 +39390,7 @@
         <v>516.2885241299999</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -40205,7 +39423,7 @@
         <v>515.2581241299999</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -40238,7 +39456,7 @@
         <v>515.2581241299999</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -40271,7 +39489,7 @@
         <v>515.2581241299999</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -40304,7 +39522,7 @@
         <v>510.5176241299999</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -40337,7 +39555,7 @@
         <v>512.19862413</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -40370,7 +39588,7 @@
         <v>524.48672413</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -40403,7 +39621,7 @@
         <v>520.8537241299999</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -40436,7 +39654,7 @@
         <v>525.1169469399999</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -40469,7 +39687,7 @@
         <v>525.0202469399999</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -40502,7 +39720,7 @@
         <v>525.0688469399998</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -40535,7 +39753,7 @@
         <v>526.3258469399998</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -40568,7 +39786,7 @@
         <v>526.3258469399998</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -40601,7 +39819,7 @@
         <v>526.3258469399998</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -40634,7 +39852,7 @@
         <v>525.0669372199998</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -40667,7 +39885,7 @@
         <v>524.9668372199998</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -40700,7 +39918,7 @@
         <v>525.5138372199998</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -40766,7 +39984,7 @@
         <v>527.1420372199998</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -41030,7 +40248,7 @@
         <v>531.2281372199999</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -41063,7 +40281,7 @@
         <v>531.2281372199999</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -41096,7 +40314,7 @@
         <v>530.6053372199999</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -41129,7 +40347,7 @@
         <v>530.0233372199999</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -41162,7 +40380,7 @@
         <v>529.0756372199999</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -41195,7 +40413,7 @@
         <v>529.5681372199998</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -41228,7 +40446,7 @@
         <v>529.4242372199998</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -41261,7 +40479,7 @@
         <v>530.1410372199998</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -41294,7 +40512,7 @@
         <v>528.2658372199999</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -41327,7 +40545,7 @@
         <v>528.2658372199999</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -41360,7 +40578,7 @@
         <v>528.2658372199999</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -41393,7 +40611,7 @@
         <v>521.3192372199999</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -41426,7 +40644,7 @@
         <v>525.9066372399999</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -41459,7 +40677,7 @@
         <v>519.8361372399999</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -41492,7 +40710,7 @@
         <v>519.8361372399999</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -41525,7 +40743,7 @@
         <v>520.3021372399999</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -41558,7 +40776,7 @@
         <v>522.9272372399998</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -41591,7 +40809,7 @@
         <v>528.0081372399999</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -41624,7 +40842,7 @@
         <v>530.6850372399999</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -41657,7 +40875,7 @@
         <v>533.19676734</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -41690,7 +40908,7 @@
         <v>529.55816734</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -41723,7 +40941,7 @@
         <v>529.55816734</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -41756,7 +40974,7 @@
         <v>531.2548673399999</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -41789,7 +41007,7 @@
         <v>535.88367033</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -41822,7 +41040,7 @@
         <v>535.88367033</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -41855,7 +41073,7 @@
         <v>536.8584703299999</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -41888,7 +41106,7 @@
         <v>542.65199818</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -41921,7 +41139,7 @@
         <v>544.54278928</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -41954,7 +41172,7 @@
         <v>544.3084334199999</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -41987,7 +41205,7 @@
         <v>541.8692334199999</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -42020,7 +41238,7 @@
         <v>548.3262393899998</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -42053,7 +41271,7 @@
         <v>547.5115892099999</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -42086,7 +41304,7 @@
         <v>548.4557405699999</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -42119,7 +41337,7 @@
         <v>548.8905405699999</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -42218,7 +41436,7 @@
         <v>564.1212112599999</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -42251,7 +41469,7 @@
         <v>561.9034112599999</v>
       </c>
       <c r="H1162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -42284,7 +41502,7 @@
         <v>560.4514112599999</v>
       </c>
       <c r="H1163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -42317,7 +41535,7 @@
         <v>560.4514112599999</v>
       </c>
       <c r="H1164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -42383,7 +41601,7 @@
         <v>561.7903112599998</v>
       </c>
       <c r="H1166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -42416,7 +41634,7 @@
         <v>560.0895112599999</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -42449,7 +41667,7 @@
         <v>560.0895112599999</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -42482,7 +41700,7 @@
         <v>559.9078083499999</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -42515,7 +41733,7 @@
         <v>559.0088083499999</v>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -42548,7 +41766,7 @@
         <v>556.3693089499999</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -42581,7 +41799,7 @@
         <v>556.3693089499999</v>
       </c>
       <c r="H1172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -42614,7 +41832,7 @@
         <v>558.2396092299999</v>
       </c>
       <c r="H1173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -42647,7 +41865,7 @@
         <v>560.2239092299999</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -42680,7 +41898,7 @@
         <v>558.7898807499998</v>
       </c>
       <c r="H1175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -42713,7 +41931,7 @@
         <v>559.5703683199998</v>
       </c>
       <c r="H1176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -42746,7 +41964,7 @@
         <v>560.6380683199998</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -42779,7 +41997,7 @@
         <v>577.1577683199998</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -42812,7 +42030,7 @@
         <v>578.4298683199999</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -42845,7 +42063,7 @@
         <v>578.4298683199999</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -42878,7 +42096,7 @@
         <v>578.4298683199999</v>
       </c>
       <c r="H1181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -42911,7 +42129,7 @@
         <v>573.8187585999999</v>
       </c>
       <c r="H1182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -42944,7 +42162,7 @@
         <v>579.0294585999999</v>
       </c>
       <c r="H1183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -42977,7 +42195,7 @@
         <v>578.9572454999999</v>
       </c>
       <c r="H1184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -43142,7 +42360,7 @@
         <v>595.6452881399998</v>
       </c>
       <c r="H1189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
@@ -43274,7 +42492,7 @@
         <v>596.1408881399998</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
@@ -43439,7 +42657,7 @@
         <v>592.7042881399998</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -43472,7 +42690,7 @@
         <v>592.2805316499998</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -43505,7 +42723,7 @@
         <v>592.2805316499998</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -43538,7 +42756,7 @@
         <v>592.2805316499998</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
@@ -43571,7 +42789,7 @@
         <v>596.0587316499998</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
@@ -43604,7 +42822,7 @@
         <v>597.4397316499998</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
@@ -43637,7 +42855,7 @@
         <v>593.7633316499998</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
@@ -43670,7 +42888,7 @@
         <v>595.6353316499998</v>
       </c>
       <c r="H1205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
@@ -43703,7 +42921,7 @@
         <v>585.5449316499997</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
@@ -43736,7 +42954,7 @@
         <v>585.7937316499997</v>
       </c>
       <c r="H1207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
@@ -43769,7 +42987,7 @@
         <v>583.2408316499997</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
@@ -43802,7 +43020,7 @@
         <v>571.8157316499996</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
@@ -44330,7 +43548,7 @@
         <v>562.5532210599998</v>
       </c>
       <c r="H1225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
@@ -44429,7 +43647,7 @@
         <v>566.0084210599998</v>
       </c>
       <c r="H1228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
@@ -44462,7 +43680,7 @@
         <v>566.3654210599998</v>
       </c>
       <c r="H1229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
@@ -44495,7 +43713,7 @@
         <v>566.3654210599998</v>
       </c>
       <c r="H1230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
@@ -44528,7 +43746,7 @@
         <v>565.3596210599998</v>
       </c>
       <c r="H1231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
@@ -44561,7 +43779,7 @@
         <v>565.3596210599998</v>
       </c>
       <c r="H1232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
@@ -44594,7 +43812,7 @@
         <v>565.8274210599998</v>
       </c>
       <c r="H1233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
@@ -45254,7 +44472,7 @@
         <v>565.3857905999996</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
@@ -45287,7 +44505,7 @@
         <v>565.3857905999996</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
@@ -45320,7 +44538,7 @@
         <v>563.3738905999996</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
@@ -45353,7 +44571,7 @@
         <v>563.3738905999996</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
@@ -45386,7 +44604,7 @@
         <v>561.4804905999996</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
@@ -45419,7 +44637,7 @@
         <v>564.2497905999996</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
@@ -45452,7 +44670,7 @@
         <v>565.2984905999997</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
@@ -45485,7 +44703,7 @@
         <v>565.2984905999997</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
@@ -46211,7 +45429,7 @@
         <v>582.3873905999998</v>
       </c>
       <c r="H1282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
@@ -46244,7 +45462,7 @@
         <v>585.8744905999998</v>
       </c>
       <c r="H1283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
@@ -46277,7 +45495,7 @@
         <v>589.1224627999999</v>
       </c>
       <c r="H1284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
@@ -46310,7 +45528,7 @@
         <v>588.2813627999999</v>
       </c>
       <c r="H1285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
@@ -46343,7 +45561,7 @@
         <v>589.4276906399999</v>
       </c>
       <c r="H1286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
@@ -46376,7 +45594,7 @@
         <v>587.2176906399999</v>
       </c>
       <c r="H1287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
@@ -46409,7 +45627,7 @@
         <v>586.3664906399999</v>
       </c>
       <c r="H1288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
@@ -46442,7 +45660,7 @@
         <v>584.8991906399999</v>
       </c>
       <c r="H1289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
@@ -46475,7 +45693,7 @@
         <v>584.8991906399999</v>
       </c>
       <c r="H1290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
@@ -46508,7 +45726,7 @@
         <v>581.5028906399999</v>
       </c>
       <c r="H1291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
@@ -46541,7 +45759,7 @@
         <v>579.4779906399999</v>
       </c>
       <c r="H1292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
@@ -46574,7 +45792,7 @@
         <v>579.4779906399999</v>
       </c>
       <c r="H1293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
@@ -46607,7 +45825,7 @@
         <v>579.0862906399999</v>
       </c>
       <c r="H1294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
@@ -46640,7 +45858,7 @@
         <v>577.8476906399999</v>
       </c>
       <c r="H1295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
@@ -46673,7 +45891,7 @@
         <v>579.7799906399999</v>
       </c>
       <c r="H1296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
@@ -46706,7 +45924,7 @@
         <v>583.3211906399999</v>
       </c>
       <c r="H1297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -46739,7 +45957,7 @@
         <v>584.9583906399999</v>
       </c>
       <c r="H1298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
@@ -46772,7 +45990,7 @@
         <v>584.38769064</v>
       </c>
       <c r="H1299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
@@ -46805,7 +46023,7 @@
         <v>585.06419064</v>
       </c>
       <c r="H1300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -46838,7 +46056,7 @@
         <v>587.52729064</v>
       </c>
       <c r="H1301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -46871,7 +46089,7 @@
         <v>586.2775906400001</v>
       </c>
       <c r="H1302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -46904,7 +46122,7 @@
         <v>586.2873906400001</v>
       </c>
       <c r="H1303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
@@ -47564,7 +46782,7 @@
         <v>587.1644426</v>
       </c>
       <c r="H1323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
@@ -47597,7 +46815,7 @@
         <v>588.4035426</v>
       </c>
       <c r="H1324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
@@ -47630,7 +46848,7 @@
         <v>586.1868426000001</v>
       </c>
       <c r="H1325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
@@ -47663,7 +46881,7 @@
         <v>586.1868426000001</v>
       </c>
       <c r="H1326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
@@ -47696,7 +46914,7 @@
         <v>584.8244426000001</v>
       </c>
       <c r="H1327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
@@ -47729,7 +46947,7 @@
         <v>585.2947426000001</v>
       </c>
       <c r="H1328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
@@ -47762,7 +46980,7 @@
         <v>581.4908426000001</v>
       </c>
       <c r="H1329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
@@ -47795,7 +47013,7 @@
         <v>580.9865426000001</v>
       </c>
       <c r="H1330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
@@ -47828,7 +47046,7 @@
         <v>580.0606381800001</v>
       </c>
       <c r="H1331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
@@ -47861,7 +47079,7 @@
         <v>580.0606381800001</v>
       </c>
       <c r="H1332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
@@ -47894,7 +47112,7 @@
         <v>580.0606381800001</v>
       </c>
       <c r="H1333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
@@ -47927,7 +47145,7 @@
         <v>580.0606381800001</v>
       </c>
       <c r="H1334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
@@ -47960,7 +47178,7 @@
         <v>578.91813818</v>
       </c>
       <c r="H1335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
@@ -47993,7 +47211,7 @@
         <v>578.9650381800001</v>
       </c>
       <c r="H1336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
@@ -48059,7 +47277,7 @@
         <v>579.4274381800001</v>
       </c>
       <c r="H1338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1338" t="inlineStr"/>
       <c r="J1338" t="inlineStr"/>
@@ -48532,6 +47750,6 @@
       <c r="M1352" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest BTC.xlsx
+++ b/BackTest/2019-10-21 BackTest BTC.xlsx
@@ -3643,9 +3643,11 @@
         <v>20.22107015999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3719,9 +3721,11 @@
         <v>19.84787015999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3795,9 +3799,11 @@
         <v>19.30647015999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>9409000</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -5115,9 +5121,11 @@
         <v>23.46373088999999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>9406000</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5152,9 +5160,11 @@
         <v>32.39483088999999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>9406000</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5189,9 +5199,11 @@
         <v>29.54403088999999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>9411000</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5337,9 +5349,11 @@
         <v>30.47283088999999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>9409000</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5411,9 +5425,11 @@
         <v>30.40366887999999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>9411000</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5448,9 +5464,11 @@
         <v>30.46630686999999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>9408000</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5485,9 +5503,11 @@
         <v>30.21925062999999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>9410000</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5522,9 +5542,11 @@
         <v>32.78765062999999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>9408000</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5670,9 +5692,11 @@
         <v>30.61865062999999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>9410000</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5707,9 +5731,11 @@
         <v>32.71705062999999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>9409000</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5744,9 +5770,11 @@
         <v>25.98955062999999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5781,9 +5809,11 @@
         <v>28.61285062999999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5929,9 +5959,11 @@
         <v>45.10571025999999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>9413000</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -23911,16 +23943,18 @@
         <v>248.2465355499998</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L630" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L630" t="n">
+        <v>1</v>
+      </c>
       <c r="M630" t="inlineStr"/>
     </row>
     <row r="631">
@@ -23946,11 +23980,15 @@
         <v>247.5209355499998</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23983,7 +24021,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -24016,7 +24058,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -24049,7 +24095,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24082,7 +24132,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24115,7 +24169,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24148,7 +24206,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24181,7 +24243,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24214,7 +24280,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24247,7 +24317,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24280,7 +24354,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24313,7 +24391,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24346,7 +24428,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24379,7 +24465,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24408,11 +24498,15 @@
         <v>312.1054550599998</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24441,11 +24535,15 @@
         <v>311.3812550599998</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24474,11 +24572,15 @@
         <v>318.4280550599998</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24507,11 +24609,15 @@
         <v>318.4576550599998</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24540,11 +24646,15 @@
         <v>318.9485670699998</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24573,11 +24683,15 @@
         <v>319.0876670699998</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24606,11 +24720,15 @@
         <v>344.1959670699998</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24639,11 +24757,15 @@
         <v>348.6294670699997</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24672,11 +24794,15 @@
         <v>349.9527670699998</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24705,11 +24831,15 @@
         <v>352.1962670699997</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24738,11 +24868,15 @@
         <v>356.4852626199997</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24771,11 +24905,15 @@
         <v>360.2753626199997</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24804,11 +24942,15 @@
         <v>355.7025626199998</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24837,11 +24979,15 @@
         <v>354.3454626199998</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24870,11 +25016,15 @@
         <v>364.2254626199997</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24903,11 +25053,15 @@
         <v>354.6631626499997</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24936,11 +25090,15 @@
         <v>352.0091626499997</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24969,11 +25127,15 @@
         <v>358.5911662299997</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -25006,7 +25168,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -25035,11 +25201,15 @@
         <v>360.2841827499997</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25068,11 +25238,15 @@
         <v>352.5012827499997</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25101,11 +25275,15 @@
         <v>334.2031827499997</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25134,11 +25312,15 @@
         <v>347.7717298999997</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25167,11 +25349,15 @@
         <v>347.9885298999997</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25200,11 +25386,15 @@
         <v>344.7134298999997</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25233,11 +25423,15 @@
         <v>340.7237298999997</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25266,11 +25460,15 @@
         <v>340.7237298999997</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25299,11 +25497,15 @@
         <v>339.8310298999997</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25332,11 +25534,15 @@
         <v>335.3238298999997</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25365,11 +25571,15 @@
         <v>335.9837298999997</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25398,11 +25608,15 @@
         <v>336.9609298999997</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25431,11 +25645,15 @@
         <v>337.8737298999997</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25464,11 +25682,15 @@
         <v>337.4592298999997</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25497,11 +25719,15 @@
         <v>337.4592298999997</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25530,11 +25756,15 @@
         <v>338.6919298999997</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25563,11 +25793,15 @@
         <v>342.3525298999997</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25596,11 +25830,15 @@
         <v>340.1719474499997</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25629,11 +25867,15 @@
         <v>340.1719474499997</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25662,11 +25904,15 @@
         <v>338.9651474499997</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25695,11 +25941,15 @@
         <v>337.4531474499997</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25728,11 +25978,15 @@
         <v>337.9475474799997</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25761,11 +26015,15 @@
         <v>337.9475474799997</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25794,11 +26052,15 @@
         <v>337.9431474799998</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25827,11 +26089,15 @@
         <v>338.0938474799997</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25864,7 +26130,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25897,7 +26167,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25930,7 +26204,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25963,7 +26241,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25996,7 +26278,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -26029,7 +26315,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -26062,7 +26352,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -26095,7 +26389,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26128,7 +26426,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26161,7 +26463,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26194,7 +26500,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26227,7 +26537,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26260,7 +26574,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26293,7 +26611,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26326,7 +26648,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26359,7 +26685,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26392,7 +26722,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26425,7 +26759,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -26458,7 +26796,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -26491,7 +26833,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -26524,7 +26870,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -26557,7 +26907,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26590,7 +26944,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26623,7 +26981,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26656,7 +27018,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26689,7 +27055,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26722,7 +27092,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26755,7 +27129,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26788,7 +27166,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26821,7 +27203,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26854,7 +27240,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26887,7 +27277,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26920,7 +27314,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26953,7 +27351,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26986,7 +27388,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -27019,7 +27425,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -27052,7 +27462,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -27085,7 +27499,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -27118,7 +27536,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -27151,7 +27573,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -27184,7 +27610,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -27217,7 +27647,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -27250,7 +27684,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -27283,7 +27721,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -27316,7 +27758,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -27349,7 +27795,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -27382,7 +27832,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -27415,7 +27869,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -27448,7 +27906,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -27481,7 +27943,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -27514,7 +27980,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -27547,7 +28017,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -27580,7 +28054,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27613,7 +28091,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27646,7 +28128,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27679,7 +28165,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -27712,7 +28202,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -27745,7 +28239,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -27778,7 +28276,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -27811,7 +28313,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -27844,7 +28350,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -27877,7 +28387,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -27910,7 +28424,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27943,7 +28461,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27976,7 +28498,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -28009,7 +28535,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -28042,7 +28572,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -28075,7 +28609,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -28108,7 +28646,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -28141,7 +28683,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28174,7 +28720,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -28207,7 +28757,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -28240,7 +28794,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -28273,7 +28831,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -28306,7 +28868,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -28339,7 +28905,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -28372,7 +28942,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -28405,7 +28979,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -28438,7 +29016,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -28471,7 +29053,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -28504,7 +29090,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -28537,7 +29127,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -28570,7 +29164,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -28599,14 +29197,16 @@
         <v>390.7462892199998</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
-      <c r="L772" t="n">
-        <v>1</v>
-      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L772" t="inlineStr"/>
       <c r="M772" t="inlineStr"/>
     </row>
     <row r="773">
@@ -28632,7 +29232,7 @@
         <v>387.5782078799998</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -29028,7 +29628,7 @@
         <v>387.0423052199998</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -29127,7 +29727,7 @@
         <v>426.7189052199998</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29160,7 +29760,7 @@
         <v>441.0230052199998</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29193,7 +29793,7 @@
         <v>427.2819052199998</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -29226,7 +29826,7 @@
         <v>424.8114052199998</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -29259,7 +29859,7 @@
         <v>424.4069052199998</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -29292,7 +29892,7 @@
         <v>424.4069052199998</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29325,7 +29925,7 @@
         <v>424.9298052199998</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29358,7 +29958,7 @@
         <v>430.5622530299998</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29391,7 +29991,7 @@
         <v>433.6040530299998</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29424,7 +30024,7 @@
         <v>434.9664547999998</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29457,7 +30057,7 @@
         <v>438.5359547999998</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29490,7 +30090,7 @@
         <v>446.3609318299999</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -29523,7 +30123,7 @@
         <v>476.6978318299999</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29556,7 +30156,7 @@
         <v>465.7915966299998</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29589,7 +30189,7 @@
         <v>468.4428966299998</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29622,7 +30222,7 @@
         <v>473.4965166399998</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29655,7 +30255,7 @@
         <v>466.3979166399998</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29688,7 +30288,7 @@
         <v>472.3481166399998</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29721,7 +30321,7 @@
         <v>473.9916166399998</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29754,7 +30354,7 @@
         <v>469.3157166399998</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29787,7 +30387,7 @@
         <v>467.3334166399998</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29820,7 +30420,7 @@
         <v>468.2810166399998</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29853,7 +30453,7 @@
         <v>475.2101166399999</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29886,7 +30486,7 @@
         <v>472.9308166399999</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29919,7 +30519,7 @@
         <v>475.8817617699999</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29952,7 +30552,7 @@
         <v>473.8032617699998</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29985,7 +30585,7 @@
         <v>477.4526617699998</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -30018,7 +30618,7 @@
         <v>475.2679617699998</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30051,7 +30651,7 @@
         <v>478.5848617699998</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30084,7 +30684,7 @@
         <v>476.5211311199998</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -30117,7 +30717,7 @@
         <v>476.5211311199998</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -30150,7 +30750,7 @@
         <v>477.5466282399998</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -30183,7 +30783,7 @@
         <v>476.7171282399998</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -30216,7 +30816,7 @@
         <v>473.5612282399998</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -30249,7 +30849,7 @@
         <v>453.4411282399998</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -42327,7 +42927,7 @@
         <v>595.9285881399999</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
@@ -42393,7 +42993,7 @@
         <v>595.6452881399998</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -42426,7 +43026,7 @@
         <v>595.6452881399998</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -42459,7 +43059,7 @@
         <v>592.7362881399998</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
